--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk9hs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk9hs\Desktop\team1_game\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="更新リスト" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="プレイヤー" sheetId="2" r:id="rId3"/>
     <sheet name="敵" sheetId="3" r:id="rId4"/>
     <sheet name="ステップ" sheetId="4" r:id="rId5"/>
-    <sheet name="ステージ案" sheetId="5" r:id="rId6"/>
+    <sheet name="リザルト画面" sheetId="7" r:id="rId6"/>
+    <sheet name="ステージ案" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>Shall We Dance!! 仕様書</t>
     <rPh sb="17" eb="20">
@@ -80,63 +81,6 @@
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">●ステップをおこなうことで得点を得ることができる。
-●敵に衝突すると、バランスを崩す。これが、最大まで崩れると
-転倒してしまい、一定時間操作不能になってしまう。
-●スポットライト、審査員の前でステップをおこなうと獲得ポイントが
-1.2倍になる。　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　
-</t>
-    <rPh sb="13" eb="15">
-      <t>トクテン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>クズ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>クズ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>テントウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>フノウ</t>
-    </rPh>
-    <rPh sb="90" eb="93">
-      <t>シンサイン</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>カクトク</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>バイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -288,10 +232,6 @@
     <rPh sb="29" eb="30">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイヤーがどこにいるか、ボーナスエリアがどこにあるか、</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -728,166 +668,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・コントローラーをＸ軸に160°傾けると成立する。
-　　→成立すると最も近い敵に突進攻撃をおこなう。速度は移動速度の
-　　　1.3倍になる。
-　　　　→突進攻撃を受けたキャラクターは2キャラ分、攻撃を受けた
-　　　　　方向と逆の方向へ後退し、1段階バランスを崩す</t>
-    <rPh sb="10" eb="11">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カタム</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>トッシン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>トッシン</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>コウタイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>クズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・コントローラーをＺ軸に300°回転させると成立する。
-　　→プレイヤーを中心に円を動くようにしながら1回転、攻撃を
-　　　おこなう。速度は移動速度の1.3倍になる。
-　　　　→回転攻撃を受けたキャラクターは3キャラ分、攻撃を受けた
-　　　　　方向と逆の方向へ後退し、2段階バランスを崩す。</t>
-    <rPh sb="10" eb="11">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>コウタイ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>クズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●ステップは4種類。
 ●ＤＰ（ダンスポイント）を得ることができるステップが2種類、攻撃をおこなうステップが2種類。
 ●ステップを行っている間は、移動を行うことができない　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　
@@ -1006,6 +786,636 @@
     <rPh sb="16" eb="17">
       <t>カン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ステップをおこなうことで得点を得ることができる。
+●敵に衝突すると、バランスを崩す。これが、最大まで崩れると
+転倒してしまい、一定時間操作不能になってしまう。
+●スポットライト、審査員の前でステップをおこなうと獲得ポイントが
+1.2倍になる。　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+    <rPh sb="13" eb="15">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>シンサイン</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップのアニメーションは90ｆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース作成のタスクをプランナーに追加</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●コントローラーを傾けることで、移動を行う
+　　→移動を開始してから3拍子ごとに垂直に直さなければならない。
+　　　直せなかった場合、バランスを崩し、一定時間操作不能
+●スポットライト、審査員の前でステップをおこなうと獲得ポイントが
+1.2倍になる。　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+    <rPh sb="9" eb="10">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ビョウシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>シンサイン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11/7企画書提出　←本番プレゼンに向けて修正のプロトのつもりで制作</t>
+    <rPh sb="4" eb="7">
+      <t>キカクショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コントローラーをＸ軸に160°傾けると成立する。
+　　→成立すると最も近い敵に突進攻撃をおこなう。速度は移動速度の
+　　　1.3倍になる。
+　　　　→突進攻撃を受けたキャラクターは３キャラ分、攻撃を受けた
+　　　　　方向と逆の方向へ後退し、1段階バランスを崩す</t>
+    <rPh sb="10" eb="11">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●移動中、ステップ入力中に敵に接触してしまうと接触した方向とは反対の方向に2キャラ分後退し、画面端に警告が表示。
+　　→警告の方向へコントローラーを倒すと警告を消すことができる。
+　　→コントローラーを倒さず、警告が出続けると60f（1秒）ごとに転倒
+　　　危険度が1段階上昇。
+　　　　→危険度が３の状態で60ｆ経過、もしくは敵に衝突すると転倒。</t>
+    <rPh sb="1" eb="4">
+      <t>イドウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニュウリョクチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハンタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>デツヅ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="129" eb="132">
+      <t>キケンド</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="145" eb="148">
+      <t>キケンド</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転倒</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・有効範囲内にプレイヤーがいたら、そのプレイヤーと反対の方向へ移動する</t>
+    <rPh sb="1" eb="3">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●衝突、又は移動のミスによって発生する。
+●７秒間、移動、ステップをすることができなくなる。　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　●転倒中に敵とぶつかっても場所は変わらない</t>
+    <rPh sb="1" eb="3">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="466" eb="468">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="468" eb="469">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="470" eb="471">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コントローラーをＺ軸に300°回転させると成立する。
+　　→プレイヤーを中心に円を描くようにしながら1回転、攻撃を
+　　　おこなう。速度は移動速度の1.3倍になる。
+　　　　→回転攻撃を受けたキャラクターは４キャラ分、攻撃を受けた
+　　　　　方向と逆の方向へ後退し、2段階バランスを崩す。</t>
+    <rPh sb="10" eb="11">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面左上の「RESULT」ロゴは、最初から表示されている。4位から順に
+・何位か、
+・プレイヤー名（番号）、
+・点数
+を表示されているバーを右から左へスライドしながら入ってくる。
+プレイヤーだけ、バーの色を変える。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ナンイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ページ追加</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ案</t>
+    <rPh sb="4" eb="5">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用リソース</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵へ</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面へ</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※詳細はステップへ</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーがどこにいるか、ボーナスエリアがどこにあるか、</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1094,7 +1504,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,8 +1529,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1260,6 +1676,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1269,7 +1748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1285,80 +1764,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1376,6 +1894,628 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323849" y="571500"/>
+          <a:ext cx="5991225" cy="3800475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476249" y="714375"/>
+          <a:ext cx="1933575" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1936364" cy="563039"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="742950"/>
+          <a:ext cx="1936364" cy="563039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1">
+              <a:latin typeface="Cooper Black" panose="0208090404030B020404" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>RESULT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1">
+            <a:latin typeface="Cooper Black" panose="0208090404030B020404" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114424" y="3514725"/>
+          <a:ext cx="3886201" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123949" y="2809875"/>
+          <a:ext cx="3867151" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447673</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133473" y="2105025"/>
+          <a:ext cx="3848101" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1142999" y="1400175"/>
+          <a:ext cx="3819526" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3871124" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="1466850"/>
+          <a:ext cx="3871124" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>No.1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>　　　○〇番　　　　○○○点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3871124" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="2171700"/>
+          <a:ext cx="3871124" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>No.2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>　　　○〇番　　　　○○○点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3871124" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="2876550"/>
+          <a:ext cx="3871124" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>No.3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>　　　○〇番　　　　○○○点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3871124" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="3581400"/>
+          <a:ext cx="3871124" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>No.4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>　　　○〇番　　　　○○○点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1644,10 +2784,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1659,70 +2799,85 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
+      <c r="L2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="B3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="42">
+        <v>43039</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="33"/>
+      <c r="B5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="L2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="6">
-        <v>43039</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
+      <c r="C7" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1744,6 +2899,8 @@
     <hyperlink ref="B5" location="ステップ!A1" display="ステップ"/>
     <hyperlink ref="B6" location="ステージ案!A1" display="ステージ案"/>
     <hyperlink ref="B7" location="プレイヤー!A1" display="プレイヤー"/>
+    <hyperlink ref="L5" location="リザルト画面!A1" display="リザルト画面"/>
+    <hyperlink ref="B8" location="リザルト画面!A1" display="リザルト画面"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1759,7 +2916,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1774,37 +2931,37 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4"/>
@@ -1821,23 +2978,23 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>51</v>
+      <c r="A9" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>52</v>
+      <c r="A10" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7" t="s">
-        <v>53</v>
+      <c r="A11" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7" t="s">
-        <v>54</v>
+      <c r="A12" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1849,6 +3006,7 @@
     <hyperlink ref="A12" location="ステージ案!A1" display="ステージ案"/>
     <hyperlink ref="A11" location="ステップ!A1" display="ステップ"/>
     <hyperlink ref="A10" location="敵!A1" display="敵"/>
+    <hyperlink ref="A9" location="プレイヤー!A1" display="プレイヤー"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1860,10 +3018,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1872,89 +3030,264 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>38</v>
+      <c r="H1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="A4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="A16:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G25"/>
     <mergeCell ref="A4:G8"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G14"/>
+    <mergeCell ref="A15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="H1" location="目次!A1" display="敵へ"/>
     <hyperlink ref="L1" location="敵!A1" display="敵!A1"/>
+    <hyperlink ref="I4" location="ステップ!A1" display="※詳細はステップへ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1966,10 +3299,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1980,72 +3313,72 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24">
       <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="A4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -2057,282 +3390,293 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="19.5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="14" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="8" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A29" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:G8"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A28:G35"/>
+    <mergeCell ref="A29:G36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -2349,272 +3693,280 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:12" ht="24">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5">
+      <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.5">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="21" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="14" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="21" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
+      <c r="A25" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2626,12 +3978,186 @@
     <mergeCell ref="A13:G14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="L1" location="リザルト画面!A1" display="リザルト画面へ"/>
+    <hyperlink ref="H1" location="敵!A1" display="敵へ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:16" ht="19.5" thickBot="1">
+      <c r="N3" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="L1" location="ステージ案!A1" display="ステージ案"/>
+    <hyperlink ref="H1" location="ステップ!A1" display="ステップへ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFF0000"/>
@@ -2641,8 +4167,15 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="更新リスト" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ステージ案" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>Shall We Dance!! 仕様書</t>
     <rPh sb="17" eb="20">
@@ -960,89 +961,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・コントローラーをＸ軸に160°傾けると成立する。
-　　→成立すると最も近い敵に突進攻撃をおこなう。速度は移動速度の
-　　　1.3倍になる。
-　　　　→突進攻撃を受けたキャラクターは３キャラ分、攻撃を受けた
-　　　　　方向と逆の方向へ後退し、1段階バランスを崩す</t>
-    <rPh sb="10" eb="11">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カタム</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>トッシン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>トッシン</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>コウタイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>クズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●移動中、ステップ入力中に敵に接触してしまうと接触した方向とは反対の方向に2キャラ分後退し、画面端に警告が表示。
 　　→警告の方向へコントローラーを倒すと警告を消すことができる。
 　　→コントローラーを倒さず、警告が出続けると60f（1秒）ごとに転倒
@@ -1418,6 +1336,152 @@
     <t>・プレイヤーがどこにいるか、ボーナスエリアがどこにあるか、</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>・コントローラーをＸ軸に160°傾けると成立する。
+　　→成立すると最も近い敵に突進攻撃をおこなう。速度は移動速度の
+　　　1.3倍になる。
+　　　　→突進攻撃を受けたキャラクターは３キャラ分、攻撃を受けた
+　　　　　方向と逆の方向へ後退し、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">段階バランスを崩す
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→2段階に変更</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハーフステップの仕様を変更しました。</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1426,7 +1490,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1502,6 +1566,22 @@
       <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1748,7 +1828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1794,18 +1874,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1833,49 +1949,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2784,10 +2870,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2814,13 +2900,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="22" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -2828,7 +2914,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="42">
+      <c r="A4" s="27">
         <v>43039</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2842,42 +2928,53 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="33"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="20" t="s">
         <v>33</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="20"/>
+      <c r="B6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="20"/>
+      <c r="B7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="20"/>
+      <c r="B8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="33"/>
-      <c r="B6" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>69</v>
+    <row r="9" spans="1:12">
+      <c r="A9" s="43">
+        <v>43042</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2901,6 +2998,7 @@
     <hyperlink ref="B7" location="プレイヤー!A1" display="プレイヤー"/>
     <hyperlink ref="L5" location="リザルト画面!A1" display="リザルト画面"/>
     <hyperlink ref="B8" location="リザルト画面!A1" display="リザルト画面"/>
+    <hyperlink ref="B9" location="ステップ!A1" display="ステップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2911,7 +3009,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2935,33 +3033,33 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4"/>
@@ -3016,12 +3114,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3038,239 +3136,239 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="I4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="K12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="K14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="K15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3297,7 +3395,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -3323,62 +3421,62 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -3534,7 +3632,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3578,7 +3676,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3599,78 +3697,78 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3693,10 +3791,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:G29"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3706,78 +3804,78 @@
         <v>37</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="11" spans="1:12" ht="19.5">
       <c r="A11" s="9" t="s">
@@ -3802,24 +3900,24 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="12" t="s">
@@ -3833,24 +3931,24 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
@@ -3864,115 +3962,124 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A16:G17"/>
-    <mergeCell ref="A19:G23"/>
-    <mergeCell ref="A25:G29"/>
+    <mergeCell ref="A19:G24"/>
+    <mergeCell ref="A26:G30"/>
     <mergeCell ref="A4:G9"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A13:G14"/>
@@ -3990,7 +4097,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:P27"/>
   <sheetViews>
@@ -4002,10 +4109,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -4013,12 +4120,12 @@
     </row>
     <row r="2" spans="1:16" ht="19.5" thickBot="1"/>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4026,112 +4133,112 @@
       <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4160,17 +4267,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新リスト" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="ステージ案" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Shall We Dance!! 仕様書</t>
     <rPh sb="17" eb="20">
@@ -210,32 +209,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ステップを行う速度はプレイヤーと同じ</t>
-    <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　→ステップをしていないときはステージを時計回りに移動を行う</t>
-    <rPh sb="21" eb="24">
-      <t>トケイマワ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・ステップを行う速度がプレイヤーの1.2倍</t>
     <rPh sb="6" eb="7">
       <t>オコナ</t>
@@ -245,54 +218,6 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・有効範囲内にボーナスエリアがある場合はボーナスエリアに</t>
-    <rPh sb="1" eb="3">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>向かって移動をする</t>
-  </si>
-  <si>
-    <t>・攻撃範囲内かつ、ボーナスエリア上に他のキャラクターが存在していたら、</t>
-    <rPh sb="1" eb="3">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そのキャラクターへ向かって「ハーフ」のステップをおこなう</t>
-    <rPh sb="9" eb="10">
-      <t>ム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -412,59 +337,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・有効範囲内にボーナスエリアがない場合は６拍子に一回ステップを行う</t>
-    <rPh sb="1" eb="3">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>関わらず「ターン」、「クォーター」ステップを行う。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　→ボーナスエリア上にいる場合、3拍子に一回ステップを行う</t>
-    <rPh sb="10" eb="11">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ビョウシ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イッカイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　→ステップは「ターン」を30％、「クォーター」を70％の確率で行う（上級</t>
-    <rPh sb="32" eb="34">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　　ステージ、バランス調整で変更する場合アリ）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -669,62 +542,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●ステップは4種類。
-●ＤＰ（ダンスポイント）を得ることができるステップが2種類、攻撃をおこなうステップが2種類。
-●ステップを行っている間は、移動を行うことができない　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　
-●ステップボタンを押している間のコントローラーの傾きで判定する
-●ボーナスエリア内にいるときには獲得ＤＰは1.2倍になる。</t>
-    <rPh sb="7" eb="9">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="539" eb="540">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="544" eb="545">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="554" eb="555">
-      <t>カタム</t>
-    </rPh>
-    <rPh sb="557" eb="559">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="570" eb="571">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="578" eb="580">
-      <t>カクトク</t>
-    </rPh>
-    <rPh sb="586" eb="587">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーへ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -857,16 +674,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リソース作成のタスクをプランナーに追加</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●コントローラーを傾けることで、移動を行う
 　　→移動を開始してから3拍子ごとに垂直に直さなければならない。
 　　　直せなかった場合、バランスを崩し、一定時間操作不能
@@ -935,28 +742,6 @@
     <t>衝突</t>
     <rPh sb="0" eb="2">
       <t>ショウトツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11/7企画書提出　←本番プレゼンに向けて修正のプロトのつもりで制作</t>
-    <rPh sb="4" eb="7">
-      <t>キカクショ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホンバン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1482,6 +1267,418 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>※11/8更新</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ライバルタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージ上の最も近いボーナスへ向かって移動をおこなう。
+・</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・3拍子ごとに移動と停止を繰り返しながら移動をおこなう。移動ルートはステージ
+の外周を周回するように移動をおこなう。
+・審査員の視界が判定範囲内にあった場合、そちらに向けて移動をおこなう。視界
+内に入った後は、「ターン」を30％、「クォーター」を70％の確率で行う（上級ステージ、バランス調整で変更する場合アリ）
+・攻撃範囲内かつ、ボーナスエリア上に他のキャラクターが存在していたら、そのキャラクターへ向かって「ハーフ」のステップをおこなう。
+・ステップはステップ入力開始後、
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※11/8更新</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>ビョウシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガイシュウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュウカイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>シンサイン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の種類追加＆挙動を変更しました</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステップボタンを左側（〇、×、△、□）と右側（矢印キー）に分類し、どちらかのいずれかのボタンが押されているときに「charge1.efk」を、両方押されたときに「charge2.efk」をキャラクターと同じ座標に表示する。</t>
+    <rPh sb="9" eb="11">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ステップは4種類。
+●ＤＰ（ダンスポイント）を得ることができるステップが2種類、攻撃をおこなうステップが2種類。
+●ステップを行っている間は、移動を行うことができない　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　
+●ステップボタン（〇、×、△、□、方向キー）を押している間のコントローラーの傾きで判定する
+●ボーナスエリア内にいるときには獲得ＤＰは1.2倍になる。</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="547" eb="549">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="553" eb="554">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="558" eb="559">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="568" eb="569">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="571" eb="573">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="584" eb="585">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="592" eb="594">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="600" eb="601">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステップボタンを左側（〇、×、△、□）と右側（矢印キー）に分類し、どちらかのいずれかのボタンが押されているときに「charge1.efk」を、両方押されたときに「charge2.efk」をキャラクターと同じ座標に表示する。
+例）○ボタンが押されている→charge1.efkを再生
+○ボタン＋方向キー左を入力→charge2.efkを再生
+・charge1.efkを再生時、同時にcharge1_se.wavを再生
+・charge2.efkを再生時、同時にcharge2_se.wavを再生</t>
+    <rPh sb="9" eb="11">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ステップを行っている間、〇_turn_anim.mv1を再生、turn.efkをキャラクターと同じ座標で再生。
+</t>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※〇は各キャラクターごとに変わる。</t>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　例）「p」→パワータイプ、「pl」→プレイヤー</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステップを行っている間、〇__anim.mv1を再生、turn.efkをキャラクターと同じ座標で再生。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップの演出について、追加しました。</t>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1490,7 +1687,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,8 +1780,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,8 +1820,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor theme="1"/>
+        <bgColor theme="0" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor theme="1"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1819,6 +2036,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1828,7 +2056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1850,12 +2078,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1913,6 +2135,36 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1952,17 +2204,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1983,6 +2244,545 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31187</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10106024" y="609600"/>
+          <a:ext cx="4429125" cy="1955237"/>
+          <a:chOff x="6028781" y="809625"/>
+          <a:chExt cx="6790379" cy="2653478"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8651394" y="809625"/>
+            <a:ext cx="4167766" cy="2653478"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="楕円 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9085975" y="1175433"/>
+            <a:ext cx="781693" cy="820092"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="66675">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="楕円 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11615543" y="1175433"/>
+            <a:ext cx="884835" cy="886174"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="66675">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="6"/>
+            <a:endCxn id="4" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9867668" y="1585479"/>
+            <a:ext cx="1747875" cy="33041"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="88900">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7633111" y="1565675"/>
+            <a:ext cx="1452864" cy="19805"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="88900">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6028781" y="1396641"/>
+            <a:ext cx="2371098" cy="652763"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+              <a:t>ステップボタン</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2870,10 +3670,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2888,7 +3688,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -2900,13 +3700,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -2914,68 +3714,96 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>43039</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>33</v>
+      <c r="C5" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>34</v>
+      <c r="C6" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>52</v>
+      <c r="C7" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>68</v>
+      <c r="A8" s="18"/>
+      <c r="B8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="43">
+      <c r="A9" s="26">
         <v>43042</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>78</v>
-      </c>
+      <c r="C9" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="26">
+        <v>43047</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="26">
+        <v>43048</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="26"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2999,6 +3827,8 @@
     <hyperlink ref="L5" location="リザルト画面!A1" display="リザルト画面"/>
     <hyperlink ref="B8" location="リザルト画面!A1" display="リザルト画面"/>
     <hyperlink ref="B9" location="ステップ!A1" display="ステップ"/>
+    <hyperlink ref="B10" location="敵!A1" display="敵"/>
+    <hyperlink ref="B11" location="ステップ!A1" display="ステップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3009,12 +3839,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
-    <tabColor theme="7"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3033,33 +3863,33 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4"/>
@@ -3077,22 +3907,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3114,12 +3944,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
-    <tabColor theme="7"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3129,246 +3959,240 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="A4" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="A9" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="K14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="K15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A16" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="A16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="A22" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A23" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3395,12 +4219,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
-    <tabColor theme="7"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3414,69 +4238,69 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="A4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -3488,293 +4312,375 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="19.5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="6" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A4:G8"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A29:G36"/>
+    <mergeCell ref="A12:G21"/>
+    <mergeCell ref="A38:G45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3791,298 +4697,517 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="24">
+    <row r="1" spans="1:15" ht="24">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A4" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="44"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
+    </row>
+    <row r="9" spans="1:15" ht="21" customHeight="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="13" spans="1:15" ht="19.5">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="44"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A21" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.5">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A16:G17"/>
-    <mergeCell ref="A19:G24"/>
-    <mergeCell ref="A26:G30"/>
-    <mergeCell ref="A4:G9"/>
+  <mergeCells count="12">
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G40"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N11"/>
+    <mergeCell ref="A18:G19"/>
+    <mergeCell ref="A21:G26"/>
+    <mergeCell ref="A28:G32"/>
+    <mergeCell ref="A4:G11"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A13:G14"/>
+    <mergeCell ref="A15:G16"/>
+    <mergeCell ref="H15:N16"/>
+    <mergeCell ref="H18:N19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4091,28 +5216,29 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -4120,138 +5246,138 @@
     </row>
     <row r="2" spans="1:16" ht="19.5" thickBot="1"/>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
-      <c r="N3" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26" t="s">
-        <v>71</v>
+      <c r="N3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A21" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="A21:G26"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4267,19 +5393,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
-    <tabColor theme="7"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>Shall We Dance!! 仕様書</t>
     <rPh sb="17" eb="20">
@@ -1279,26 +1279,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ステージ上の最も近いボーナスへ向かって移動をおこなう。
-・</t>
-    <rPh sb="5" eb="6">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">・3拍子ごとに移動と停止を繰り返しながら移動をおこなう。移動ルートはステージ
 の外周を周回するように移動をおこなう。
@@ -1676,6 +1656,135 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            「b」→バランスタイプ、「r」→ライバルタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライバルタイプを追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・3拍子ごとに移動と停止を繰り返しながら移動をおこなう。移動ルートはステージ
+の外周を周回するように移動をおこなう。
+・6拍子ごとに有効範囲内にボーナスエリアがあるか検索をおこなう。
+　　　　→ボーナスエリアがあり、ボーナスエリア内に現在1位のキャラがいた場合、
+　　　　　そのキャラに「ハーフ」ステップをおこなう。「ハーフ」ステップを行
+　　　　　い、相手がスタンするか元いたボーナスエリアから一定距離離れるまで連
+　　　　　続で「ハーフ」ステップをおこなう。
+　　　　→ボーナスエリアがあり、ボーナスエリア内にキャラがいない場合は、エリ
+　　　　　アへ移動し、「クォーター」、「ターン」、「クォーター」の順でステッ
+　　　　　プを行い、巡回へ戻る。１位以外のキャラがいた場合、巡回を続ける。
+　　　　　　　→ステップ中に他キャラから衝突or攻撃を受けエリア外へ出てしまっ
+　　　　　　　　た場合、復帰はせずに巡回へ戻る。
+　　　　→ボーナスエリアがなかった場合、巡回を続ける。</t>
+    <rPh sb="61" eb="63">
+      <t>ビョウシ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="336" eb="337">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="346" eb="348">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="349" eb="351">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="352" eb="353">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="369" eb="370">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="371" eb="372">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="377" eb="379">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="384" eb="385">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="389" eb="390">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="391" eb="392">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="406" eb="408">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="409" eb="411">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="415" eb="417">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="418" eb="419">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="439" eb="441">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="442" eb="444">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="445" eb="446">
+      <t>ツヅ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2219,10 +2328,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3673,7 +3782,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3785,7 +3894,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3796,11 +3905,17 @@
         <v>12</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="26"/>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="26"/>
@@ -3829,6 +3944,7 @@
     <hyperlink ref="B9" location="ステップ!A1" display="ステップ"/>
     <hyperlink ref="B10" location="敵!A1" display="敵"/>
     <hyperlink ref="B11" location="ステップ!A1" display="ステップ"/>
+    <hyperlink ref="B12" location="敵!A1" display="敵"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4221,16 +4337,16 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:G45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -4335,7 +4451,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -4602,7 +4718,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="39" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -4666,13 +4782,58 @@
       <c r="G44" s="44"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4680,7 +4841,7 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A29:G36"/>
     <mergeCell ref="A12:G21"/>
-    <mergeCell ref="A38:G45"/>
+    <mergeCell ref="A38:G50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4699,8 +4860,8 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4727,7 +4888,7 @@
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
@@ -4738,7 +4899,7 @@
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1">
       <c r="A4" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -4747,7 +4908,7 @@
       <c r="F4" s="40"/>
       <c r="G4" s="41"/>
       <c r="H4" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
@@ -4879,7 +5040,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -4917,7 +5078,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="41"/>
       <c r="H15" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
@@ -4926,7 +5087,7 @@
       <c r="M15" s="40"/>
       <c r="N15" s="41"/>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4945,10 +5106,10 @@
       <c r="M16" s="43"/>
       <c r="N16" s="44"/>
       <c r="O16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
@@ -4965,8 +5126,11 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="39" t="s">
         <v>31</v>
       </c>
@@ -4977,7 +5141,7 @@
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
       <c r="H18" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
@@ -4986,7 +5150,7 @@
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="42"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -5002,7 +5166,7 @@
       <c r="M19" s="43"/>
       <c r="N19" s="44"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
@@ -5013,7 +5177,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1">
+    <row r="21" spans="1:15" ht="18.75" customHeight="1">
       <c r="A21" s="39" t="s">
         <v>64</v>
       </c>
@@ -5024,7 +5188,7 @@
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -5033,7 +5197,7 @@
       <c r="F22" s="43"/>
       <c r="G22" s="44"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -5042,7 +5206,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="44"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -5051,7 +5215,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="44"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="42"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -5060,7 +5224,7 @@
       <c r="F25" s="43"/>
       <c r="G25" s="44"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -5069,7 +5233,7 @@
       <c r="F26" s="46"/>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -5080,7 +5244,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="39" t="s">
         <v>51</v>
       </c>
@@ -5091,7 +5255,7 @@
       <c r="F28" s="40"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -5100,7 +5264,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="44"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" s="42"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -5109,7 +5273,7 @@
       <c r="F30" s="43"/>
       <c r="G30" s="44"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -5118,7 +5282,7 @@
       <c r="F31" s="43"/>
       <c r="G31" s="44"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -5129,7 +5293,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
@@ -5140,7 +5304,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -5255,40 +5419,40 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="13" t="s">
@@ -5368,16 +5532,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A21:G26"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A21:G26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="更新リスト" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>Shall We Dance!! 仕様書</t>
     <rPh sb="17" eb="20">
@@ -671,71 +671,6 @@
   </si>
   <si>
     <t>ステップのアニメーションは90ｆ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●コントローラーを傾けることで、移動を行う
-　　→移動を開始してから3拍子ごとに垂直に直さなければならない。
-　　　直せなかった場合、バランスを崩し、一定時間操作不能
-●スポットライト、審査員の前でステップをおこなうと獲得ポイントが
-1.2倍になる。　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
-    <rPh sb="9" eb="10">
-      <t>カタム</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ビョウシ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>スイチョク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ナオ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ナオ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>クズ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>フノウ</t>
-    </rPh>
-    <rPh sb="93" eb="96">
-      <t>シンサイン</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>カクトク</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>バイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1279,9 +1214,337 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>敵の種類追加＆挙動を変更しました</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ステップは4種類。
+●ＤＰ（ダンスポイント）を得ることができるステップが2種類、攻撃をおこなうステップが2種類。
+●ステップを行っている間は、移動を行うことができない　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　
+●ステップボタン（〇、×、△、□、方向キー）を押している間のコントローラーの傾きで判定する
+●ボーナスエリア内にいるときには獲得ＤＰは1.2倍になる。</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="547" eb="549">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="553" eb="554">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="558" eb="559">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="568" eb="569">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="571" eb="573">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="584" eb="585">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="592" eb="594">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="600" eb="601">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステップボタンを左側（〇、×、△、□）と右側（矢印キー）に分類し、どちらかのいずれかのボタンが押されているときに「charge1.efk」を、両方押されたときに「charge2.efk」をキャラクターと同じ座標に表示する。
+例）○ボタンが押されている→charge1.efkを再生
+○ボタン＋方向キー左を入力→charge2.efkを再生
+・charge1.efkを再生時、同時にcharge1_se.wavを再生
+・charge2.efkを再生時、同時にcharge2_se.wavを再生</t>
+    <rPh sb="9" eb="11">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ステップを行っている間、〇_turn_anim.mv1を再生、turn.efkをキャラクターと同じ座標で再生。
+</t>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップの演出について、追加しました。</t>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライバルタイプを追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・3拍子ごとに移動と停止を繰り返しながら移動をおこなう。移動ルートはステージ
+の外周を周回するように移動をおこなう。
+・6拍子ごとに有効範囲内にボーナスエリアがあるか検索をおこなう。
+　　　　→ボーナスエリアがあり、ボーナスエリア内に現在1位のキャラがいた場合、
+　　　　　そのキャラに「ハーフ」ステップをおこなう。「ハーフ」ステップを行
+　　　　　い、相手がスタンするか元いたボーナスエリアから一定距離離れるまで連
+　　　　　続で「ハーフ」ステップをおこなう。
+　　　　→ボーナスエリアがあり、ボーナスエリア内にキャラがいない場合は、エリ
+　　　　　アへ移動し、「クォーター」、「ターン」、「クォーター」の順でステッ
+　　　　　プを行い、巡回へ戻る。１位以外のキャラがいた場合、巡回を続ける。
+　　　　　　　→ステップ中に他キャラから衝突or攻撃を受けエリア外へ出てしまっ
+　　　　　　　　た場合、復帰はせずに巡回へ戻る。
+　　　　→ボーナスエリアがなかった場合、巡回を続ける。</t>
+    <rPh sb="61" eb="63">
+      <t>ビョウシ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="336" eb="337">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="346" eb="348">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="349" eb="351">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="352" eb="353">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="369" eb="370">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="371" eb="372">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="377" eb="379">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="384" eb="385">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="389" eb="390">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="391" eb="392">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="406" eb="408">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="409" eb="411">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="415" eb="417">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="418" eb="419">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="439" eb="441">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="442" eb="444">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="445" eb="446">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">・3拍子ごとに移動と停止を繰り返しながら移動をおこなう。移動ルートはステージ
-の外周を周回するように移動をおこなう。
+      <t xml:space="preserve">・3拍ごとに移動と停止１、２拍で移動をし、3拍で停止をおこなう。移動ルートはステージの外周を周回するように移動をおこなう。
 ・審査員の視界が判定範囲内にあった場合、そちらに向けて移動をおこなう。視界
 内に入った後は、「ターン」を30％、「クォーター」を70％の確率で行う（上級ステージ、バランス調整で変更する場合アリ）
 ・攻撃範囲内かつ、ボーナスエリア上に他のキャラクターが存在していたら、そのキャラクターへ向かって「ハーフ」のステップをおこなう。
@@ -1299,315 +1562,234 @@
       </rPr>
       <t>※11/8更新</t>
     </r>
-    <rPh sb="2" eb="4">
+    <rPh sb="2" eb="3">
+      <t>ハク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガイシュウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュウカイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>シンサイン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">●コントローラーを傾けることで、移動を行う
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　　→移動を開始してから3拍子ごとに垂直に直さなければならない。
+　　　直せなかった場合、バランスを崩し、一定時間操作不能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※垂直に修正するシステムは操作性が著しく損なわれるため、廃止（11/08）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
       <t>ビョウシ</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イドウ</t>
-    </rPh>
     <rPh sb="40" eb="42">
-      <t>ガイシュウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュウカイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>シンサイン</t>
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナオ</t>
     </rPh>
     <rPh sb="64" eb="66">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="69" eb="72">
-      <t>ハンイナイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="83" eb="84">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="232" eb="234">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="236" eb="237">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の種類追加＆挙動を変更しました</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>演出</t>
-    <rPh sb="0" eb="2">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ステップボタンを左側（〇、×、△、□）と右側（矢印キー）に分類し、どちらかのいずれかのボタンが押されているときに「charge1.efk」を、両方押されたときに「charge2.efk」をキャラクターと同じ座標に表示する。</t>
-    <rPh sb="9" eb="11">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ルイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●ステップは4種類。
-●ＤＰ（ダンスポイント）を得ることができるステップが2種類、攻撃をおこなうステップが2種類。
-●ステップを行っている間は、移動を行うことができない　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　
-●ステップボタン（〇、×、△、□、方向キー）を押している間のコントローラーの傾きで判定する
-●ボーナスエリア内にいるときには獲得ＤＰは1.2倍になる。</t>
-    <rPh sb="7" eb="9">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="547" eb="549">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="553" eb="554">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="558" eb="559">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="568" eb="569">
-      <t>カタム</t>
-    </rPh>
-    <rPh sb="571" eb="573">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="584" eb="585">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="592" eb="594">
-      <t>カクトク</t>
-    </rPh>
-    <rPh sb="600" eb="601">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ステップボタンを左側（〇、×、△、□）と右側（矢印キー）に分類し、どちらかのいずれかのボタンが押されているときに「charge1.efk」を、両方押されたときに「charge2.efk」をキャラクターと同じ座標に表示する。
-例）○ボタンが押されている→charge1.efkを再生
-○ボタン＋方向キー左を入力→charge2.efkを再生
-・charge1.efkを再生時、同時にcharge1_se.wavを再生
-・charge2.efkを再生時、同時にcharge2_se.wavを再生</t>
-    <rPh sb="9" eb="11">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ルイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="206" eb="208">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="226" eb="228">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・ステップを行っている間、〇_turn_anim.mv1を再生、turn.efkをキャラクターと同じ座標で再生。
-</t>
+    <rPh sb="72" eb="73">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>ソウサセイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>イチジル</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ハイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステップを行っている間、〇_quarter_anim.mv1を再生、quarter.efkをキャラクターと同じ座標で再生。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステップを行っている間、〇_half_anim.mv1を再生、half.efkをキャラクターと同じ座標で再生。※攻撃のため、移動する間もその移動に合わせてエフェクトも移動する</t>
     <rPh sb="6" eb="7">
       <t>オコナ</t>
     </rPh>
@@ -1626,165 +1808,104 @@
     <rPh sb="53" eb="55">
       <t>サイセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※〇は各キャラクターごとに変わる。</t>
-    <rPh sb="3" eb="4">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　例）「p」→パワータイプ、「pl」→プレイヤー</t>
-    <rPh sb="1" eb="2">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ステップを行っている間、〇__anim.mv1を再生、turn.efkをキャラクターと同じ座標で再生。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップの演出について、追加しました。</t>
+    <rPh sb="57" eb="59">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・ステップを行っている間、〇_spin_anim.mv1を再生、spin.efkをキャラクターと同じ座標で再生。※攻撃のためにキャラクターが円を描くように移動する際、エフェクトはキャラクターを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追従しない。</t>
+    </r>
+    <rPh sb="57" eb="59">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※〇は各キャラクターごとに変わる。
+例）「p」→パワータイプ、「pl」→プレイヤー
+　　「b」→バランスタイプ、「r」→ライバルタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップの演出について、さらに追加しました。</t>
     <rPh sb="5" eb="7">
       <t>エンシュツ</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="15" eb="17">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">            「b」→バランスタイプ、「r」→ライバルタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライバルタイプを追加</t>
+    <t>ライバルタイプの仕様を追記しました</t>
     <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・3拍子ごとに移動と停止を繰り返しながら移動をおこなう。移動ルートはステージ
-の外周を周回するように移動をおこなう。
-・6拍子ごとに有効範囲内にボーナスエリアがあるか検索をおこなう。
-　　　　→ボーナスエリアがあり、ボーナスエリア内に現在1位のキャラがいた場合、
-　　　　　そのキャラに「ハーフ」ステップをおこなう。「ハーフ」ステップを行
-　　　　　い、相手がスタンするか元いたボーナスエリアから一定距離離れるまで連
-　　　　　続で「ハーフ」ステップをおこなう。
-　　　　→ボーナスエリアがあり、ボーナスエリア内にキャラがいない場合は、エリ
-　　　　　アへ移動し、「クォーター」、「ターン」、「クォーター」の順でステッ
-　　　　　プを行い、巡回へ戻る。１位以外のキャラがいた場合、巡回を続ける。
-　　　　　　　→ステップ中に他キャラから衝突or攻撃を受けエリア外へ出てしまっ
-　　　　　　　　た場合、復帰はせずに巡回へ戻る。
-　　　　→ボーナスエリアがなかった場合、巡回を続ける。</t>
-    <rPh sb="61" eb="63">
-      <t>ビョウシ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="336" eb="337">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="337" eb="339">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="346" eb="348">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="349" eb="351">
-      <t>ジュンカイ</t>
-    </rPh>
-    <rPh sb="352" eb="353">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="369" eb="370">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="371" eb="372">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="377" eb="379">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="381" eb="383">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="384" eb="385">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="389" eb="390">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="391" eb="392">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="406" eb="408">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="409" eb="411">
-      <t>フッキ</t>
-    </rPh>
-    <rPh sb="415" eb="417">
-      <t>ジュンカイ</t>
-    </rPh>
-    <rPh sb="418" eb="419">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="439" eb="441">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="442" eb="444">
-      <t>ジュンカイ</t>
-    </rPh>
-    <rPh sb="445" eb="446">
-      <t>ツヅ</t>
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動の仕様を修正しました。</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1796,7 +1917,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1897,6 +2018,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1942,7 +2072,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2145,17 +2275,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2165,7 +2284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2182,9 +2301,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2271,8 +2387,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2334,6 +2456,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2354,6 +2479,72 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10582274" y="6857999"/>
+          <a:ext cx="1381125" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="37000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -2886,6 +3077,1796 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9744075" y="7524750"/>
+          <a:ext cx="409575" cy="409575"/>
+          <a:chOff x="9934575" y="7277100"/>
+          <a:chExt cx="409575" cy="409575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="楕円 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9934575" y="7277100"/>
+            <a:ext cx="409575" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10010775" y="7296150"/>
+            <a:ext cx="310534" cy="359073"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9534525" y="7210425"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>スピン成功！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="7553325"/>
+          <a:ext cx="247650" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10991850" y="7334250"/>
+          <a:ext cx="409575" cy="409575"/>
+          <a:chOff x="10944225" y="7267575"/>
+          <a:chExt cx="409575" cy="409575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="楕円 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10944225" y="7267575"/>
+            <a:ext cx="409575" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="42000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11010900" y="7305675"/>
+            <a:ext cx="310534" cy="359073"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="46000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="46000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11458575" y="7591425"/>
+          <a:ext cx="409575" cy="409575"/>
+          <a:chOff x="9934575" y="7277100"/>
+          <a:chExt cx="409575" cy="409575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="楕円 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9934575" y="7277100"/>
+            <a:ext cx="409575" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10010775" y="7296150"/>
+            <a:ext cx="310534" cy="359073"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="環状矢印 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10610850" y="6915150"/>
+          <a:ext cx="1247775" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="circularArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4234"/>
+            <a:gd name="adj2" fmla="val 1142319"/>
+            <a:gd name="adj3" fmla="val 20387805"/>
+            <a:gd name="adj4" fmla="val 3575439"/>
+            <a:gd name="adj5" fmla="val 9194"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11925300" y="7715250"/>
+          <a:ext cx="219075" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633379" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11896725" y="7953375"/>
+          <a:ext cx="633379" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>spin.efk</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="グループ化 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9791700" y="5829300"/>
+          <a:ext cx="409575" cy="409575"/>
+          <a:chOff x="9934575" y="7277100"/>
+          <a:chExt cx="409575" cy="409575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="楕円 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9934575" y="7277100"/>
+            <a:ext cx="409575" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10010775" y="7296150"/>
+            <a:ext cx="310534" cy="359073"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328360"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582150" y="5514975"/>
+          <a:ext cx="1031051" cy="328360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ハーフ成功！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="右矢印 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296525" y="5838825"/>
+          <a:ext cx="400050" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="楕円 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11382375" y="5829300"/>
+          <a:ext cx="600076" cy="600076"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="グループ化 38"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11010900" y="5657850"/>
+          <a:ext cx="409575" cy="409575"/>
+          <a:chOff x="10944225" y="7267575"/>
+          <a:chExt cx="409575" cy="409575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="楕円 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10944225" y="7267575"/>
+            <a:ext cx="409575" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="42000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11010900" y="7305675"/>
+            <a:ext cx="310534" cy="359073"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="46000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="46000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="グループ化 41"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11477625" y="5915025"/>
+          <a:ext cx="409575" cy="409575"/>
+          <a:chOff x="9934575" y="7277100"/>
+          <a:chExt cx="409575" cy="409575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="楕円 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9934575" y="7277100"/>
+            <a:ext cx="409575" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10010775" y="7296150"/>
+            <a:ext cx="310534" cy="359073"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="環状矢印 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10629900" y="5238750"/>
+          <a:ext cx="1247775" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="circularArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4234"/>
+            <a:gd name="adj2" fmla="val 1078055"/>
+            <a:gd name="adj3" fmla="val 20387805"/>
+            <a:gd name="adj4" fmla="val 4259486"/>
+            <a:gd name="adj5" fmla="val 9194"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="楕円 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="5257800"/>
+          <a:ext cx="600076" cy="600076"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="グループ化 47"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13144500" y="5667375"/>
+          <a:ext cx="409575" cy="409575"/>
+          <a:chOff x="10944225" y="7267575"/>
+          <a:chExt cx="409575" cy="409575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="楕円 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10944225" y="7267575"/>
+            <a:ext cx="409575" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="42000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11010900" y="7305675"/>
+            <a:ext cx="310534" cy="359073"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="46000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="46000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="グループ化 50"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12658725" y="5343525"/>
+          <a:ext cx="409575" cy="409575"/>
+          <a:chOff x="9934575" y="7277100"/>
+          <a:chExt cx="409575" cy="409575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="楕円 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9934575" y="7277100"/>
+            <a:ext cx="409575" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10010775" y="7296150"/>
+            <a:ext cx="310534" cy="359073"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="環状矢印 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12763500" y="5248275"/>
+          <a:ext cx="1247775" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="circularArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4234"/>
+            <a:gd name="adj2" fmla="val 1142319"/>
+            <a:gd name="adj3" fmla="val 20387805"/>
+            <a:gd name="adj4" fmla="val 14583452"/>
+            <a:gd name="adj5" fmla="val 9194"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11991975" y="6124575"/>
+          <a:ext cx="219075" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="614720" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11925300" y="6296025"/>
+          <a:ext cx="614720" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>half.efk</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="右矢印 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12049125" y="5772150"/>
+          <a:ext cx="428625" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3779,10 +5760,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3809,13 +5790,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -3823,7 +5804,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>43039</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3837,88 +5818,114 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="17"/>
+      <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="17"/>
+      <c r="B7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="17"/>
+      <c r="B8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="18"/>
-      <c r="B6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="25">
+        <v>43042</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="25">
+        <v>43047</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="25">
+        <v>43048</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="25"/>
+      <c r="B12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="25">
+        <v>43052</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="17"/>
+      <c r="B15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="26">
-        <v>43042</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="26">
-        <v>43047</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="26">
-        <v>43048</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="26"/>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="26"/>
+      <c r="C15" s="26" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3945,6 +5952,9 @@
     <hyperlink ref="B10" location="敵!A1" display="敵"/>
     <hyperlink ref="B11" location="ステップ!A1" display="ステップ"/>
     <hyperlink ref="B12" location="敵!A1" display="敵"/>
+    <hyperlink ref="B13" location="ステップ!A1" display="ステップ"/>
+    <hyperlink ref="B14" location="敵!A1" display="敵"/>
+    <hyperlink ref="B15" location="プレイヤー!A1" display="プレイヤー"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3979,33 +5989,33 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4"/>
@@ -4060,12 +6070,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
-    <tabColor theme="4" tint="-0.249977111117893"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4082,233 +6092,233 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="I4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="A10" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="K12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A16" s="37" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A23" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
+      <c r="A23" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4337,10 +6347,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4361,62 +6371,62 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -4428,412 +6438,417 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="19.5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="L12" s="6"/>
+      <c r="A12" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="L13" s="6"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="L14" s="6"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="L15" s="6"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="L16" s="6"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="L16" s="57"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="L17" s="6"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="L18" s="6"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="L19" s="6"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-      <c r="L20" s="6"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="L20" s="57"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="L21" s="6"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A29" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A29" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
+      <c r="A38" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4858,520 +6873,733 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J28" sqref="H28:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="24">
+    <row r="1" spans="1:21" ht="24">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="38" t="s">
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A4" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
-    </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="44"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="44"/>
-    </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="44"/>
-    </row>
-    <row r="11" spans="1:15" ht="21" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
-    </row>
-    <row r="13" spans="1:15" ht="19.5">
-      <c r="A13" s="7" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+    </row>
+    <row r="8" spans="1:21" ht="21" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
+    </row>
+    <row r="9" spans="1:21" ht="21" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
+    </row>
+    <row r="10" spans="1:21" ht="21" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
+    </row>
+    <row r="11" spans="1:21" ht="21" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="48"/>
+    </row>
+    <row r="13" spans="1:21" ht="19.5">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="39" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="41"/>
-      <c r="O15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
-      <c r="O16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="10" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="42"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="45"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="48"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="11"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="45"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="11"/>
+    </row>
+    <row r="22" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A22" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="44"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="10" t="s">
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="42"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="45"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="45"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="45"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="45"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="48"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="11"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="42"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="45"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="45"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="45"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="45"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G40"/>
+  <mergeCells count="16">
+    <mergeCell ref="O29:U34"/>
+    <mergeCell ref="O19:U20"/>
+    <mergeCell ref="O22:U27"/>
+    <mergeCell ref="O15:U17"/>
     <mergeCell ref="H3:N3"/>
     <mergeCell ref="H4:N11"/>
-    <mergeCell ref="A18:G19"/>
-    <mergeCell ref="A21:G26"/>
-    <mergeCell ref="A28:G32"/>
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="A22:G27"/>
+    <mergeCell ref="A29:G34"/>
     <mergeCell ref="A4:G11"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A15:G16"/>
     <mergeCell ref="H15:N16"/>
-    <mergeCell ref="H18:N19"/>
+    <mergeCell ref="H19:N20"/>
+    <mergeCell ref="H22:N27"/>
+    <mergeCell ref="H29:N34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5399,10 +7627,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -5410,125 +7638,125 @@
     </row>
     <row r="2" spans="1:16" ht="19.5" thickBot="1"/>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A21" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
+      <c r="A21" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5569,7 +7797,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新リスト" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ステージ案" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -338,108 +339,6 @@
   </si>
   <si>
     <t>関わらず「ターン」、「クォーター」ステップを行う。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ステージ上の自分に最も近いボーナスエリアへ向かって移動を行う。
-・現在地と目的地（ボーナスエリア）との直線状に他のキャラクターがいる場合、「ハーフ」のステップを行う。
-・ボーナスエリアにいるときは、「ターン」を30％、「クォーター」を70％の確率でおこなう（実装後、調整予定）
-　　→他のキャラクターが有効範囲内に近づいてきたら、「ターン」を行う。（有効
-　　　範囲はステージＬＶによって変更予定）
-・ステップを行う速度がプレイヤーの0.8倍</t>
-    <rPh sb="5" eb="6">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>ゲンザイチ</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>モクテキチ</t>
-    </rPh>
-    <rPh sb="52" eb="55">
-      <t>チョクセンジョウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="172" eb="173">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="207" eb="208">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="209" eb="211">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="221" eb="222">
-      <t>バイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1906,6 +1805,98 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージ上の自分に最も近いボーナスエリアへ向かって移動を行う。
+・現在地と目的地（ボーナスエリア）との直線状に他のキャラクターがいる場合、「ハーフ」のステップを行う。
+・ボーナスエリアにいるときは、「ターン」を30％、「クォーター」を70％の確率でおこなう（実装後、調整予定）
+　　→他のキャラクターが有効範囲内に近づいてきたら、「ターン」を行う。（有効
+　　　範囲はステージＬＶによって変更予定）</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>チョクセンジョウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2396,6 +2387,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2455,9 +2449,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5778,7 +5769,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -5811,7 +5802,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>13</v>
@@ -5823,10 +5814,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5835,7 +5826,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5844,16 +5835,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5864,7 +5855,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5875,7 +5866,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5886,7 +5877,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5895,7 +5886,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5906,7 +5897,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5915,7 +5906,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5924,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5989,33 +5980,33 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4"/>
@@ -6033,22 +6024,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6074,8 +6065,8 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6085,240 +6076,240 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="I4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="I4" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="39" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="K12" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="K12" t="s">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="39" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A16" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A23" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6349,8 +6340,8 @@
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6364,69 +6355,69 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -6460,106 +6451,106 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="L12" s="57"/>
+      <c r="A12" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
-      <c r="L13" s="57"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="L14" s="57"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="L15" s="57"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="L16" s="57"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="L17" s="57"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="L18" s="57"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="L18" s="37"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="L19" s="57"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="L20" s="57"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="L21" s="57"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="27" t="s">
@@ -6574,7 +6565,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -6616,12 +6607,12 @@
       <c r="F26" s="31"/>
       <c r="G26" s="32"/>
       <c r="H26" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -6642,82 +6633,82 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A29" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="A29" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -6727,127 +6718,127 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
+      <c r="A38" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="43"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="43"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="43"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="43"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6883,166 +6874,166 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A4" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-    </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:21" ht="21" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:21" ht="21" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="46"/>
     </row>
     <row r="10" spans="1:21" ht="21" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" spans="1:21" ht="21" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="13" spans="1:21" ht="19.5">
       <c r="A13" s="6" t="s">
@@ -7055,7 +7046,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
       <c r="H13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -7064,7 +7055,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="8"/>
       <c r="O13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -7075,7 +7066,7 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -7099,56 +7090,56 @@
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A15" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="42"/>
+      <c r="A15" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="43"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="45"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="46"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="34"/>
@@ -7165,17 +7156,17 @@
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
       <c r="N17" s="36"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="48"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -7199,58 +7190,58 @@
       <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
+      <c r="A19" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="43"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="46"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -7274,150 +7265,150 @@
       <c r="U21" s="11"/>
     </row>
     <row r="22" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="42"/>
+      <c r="A22" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="43"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="45"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="46"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="45"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="46"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="45"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="46"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="45"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="46"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="48"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="49"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -7441,146 +7432,146 @@
       <c r="U28" s="11"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
+      <c r="A29" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="43"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="45"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="46"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="45"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="46"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="45"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="46"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="45"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="46"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="48"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7590,16 +7581,16 @@
     <mergeCell ref="O15:U17"/>
     <mergeCell ref="H3:N3"/>
     <mergeCell ref="H4:N11"/>
+    <mergeCell ref="H15:N16"/>
+    <mergeCell ref="H19:N20"/>
+    <mergeCell ref="H22:N27"/>
+    <mergeCell ref="H29:N34"/>
     <mergeCell ref="A19:G20"/>
     <mergeCell ref="A22:G27"/>
     <mergeCell ref="A29:G34"/>
     <mergeCell ref="A4:G11"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A15:G16"/>
-    <mergeCell ref="H15:N16"/>
-    <mergeCell ref="H19:N20"/>
-    <mergeCell ref="H22:N27"/>
-    <mergeCell ref="H29:N34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7627,10 +7618,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -7639,48 +7630,48 @@
     <row r="2" spans="1:16" ht="19.5" thickBot="1"/>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
       <c r="N3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
@@ -7694,60 +7685,60 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A21" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="15"/>
@@ -7797,7 +7788,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="更新リスト" sheetId="6" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="ステップ" sheetId="4" r:id="rId5"/>
     <sheet name="リザルト画面" sheetId="7" r:id="rId6"/>
     <sheet name="ステージ案" sheetId="5" r:id="rId7"/>
+    <sheet name="チュートリアル" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>Shall We Dance!! 仕様書</t>
     <rPh sb="17" eb="20">
@@ -1897,6 +1897,243 @@
     </rPh>
     <rPh sb="197" eb="199">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:ようこそ！ビギナーダンススクールへ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:ここではバトルダンスのいろはを２人に学んでもらいます。</t>
+    <rPh sb="18" eb="19">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:2人で声を掛け合い、息を合わせて乗り越えていってくださいね！</t>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:まずは基本中の基本、2人で移動をしてみましょう。</t>
+    <rPh sb="5" eb="8">
+      <t>キホンチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「レッスン1　:　移動」文字のカットイン</t>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:コントローラーを傾けることで移動をすることができます。</t>
+    <rPh sb="10" eb="11">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:それでは、実際に移動してみましょう！！</t>
+    <rPh sb="7" eb="9">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ上にチェックポイントをひとつずつ表示。チェックポイントは</t>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが接触したら消え、次のポイントを表示</t>
+  </si>
+  <si>
+    <t>「レッスン２　:　ステップ」文字のカットイン</t>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:次はダンスの花形、ステップを練習していきましょう！</t>
+    <rPh sb="2" eb="3">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハナガタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:まずは、クォーターです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:〇ボタンと左矢印キーを押しながらコントローラを45°傾けましょう。</t>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カタム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※移動不可状態にする</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべて接触したら、「エクセレント！！」のカットイン</t>
+    <rPh sb="3" eb="5">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※クォーターが成功したら「エクセレント」のカットイン</t>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※再び移動停止</t>
+    <rPh sb="1" eb="2">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:お見事です！！</t>
+    <rPh sb="3" eb="5">
+      <t>ミゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5:クォーターは操作の難易度が低く、ダンスポイントを獲得できるため、ダンスポイントを獲得する基本的なステップになります。</t>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6:次はターンです。</t>
+    <rPh sb="2" eb="3">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7:○ボタンと左矢印キーを押しながらコントローラーを縦に1回転させてみましょう。</t>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ターンが成功したら「エクセレント」のカットイン</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2275,7 +2512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2444,11 +2681,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5485,6 +5731,549 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129065</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4857750" y="590550"/>
+          <a:ext cx="4257676" cy="2700815"/>
+          <a:chOff x="323849" y="571500"/>
+          <a:chExt cx="5991225" cy="3800475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="323849" y="571500"/>
+            <a:ext cx="5991225" cy="3800475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="楕円 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="800100" y="885825"/>
+            <a:ext cx="571500" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="34925">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="楕円 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5276849" y="885824"/>
+            <a:ext cx="590551" cy="590551"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="34925">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="楕円 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2301512" y="1476373"/>
+            <a:ext cx="2076451" cy="2076451"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:alpha val="41000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="34925">
+            <a:noFill/>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5124450" y="1838325"/>
+          <a:ext cx="542925" cy="542925"/>
+          <a:chOff x="4743450" y="3457575"/>
+          <a:chExt cx="542925" cy="542925"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="楕円 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4743450" y="3457575"/>
+            <a:ext cx="542925" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4819650" y="3514725"/>
+            <a:ext cx="389850" cy="435697"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+              <a:t>初</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9715500" y="695325"/>
+          <a:ext cx="409575" cy="409575"/>
+          <a:chOff x="4743450" y="3457575"/>
+          <a:chExt cx="542925" cy="542925"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="楕円 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4743450" y="3457575"/>
+            <a:ext cx="542925" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4794397" y="3476846"/>
+            <a:ext cx="482779" cy="520688"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+              <a:t>初</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1723549" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="742950"/>
+          <a:ext cx="1723549" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>：プレイヤー初期位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="552450"/>
+          <a:ext cx="1454244" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>練習メニュー見出し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -6340,7 +7129,7 @@
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:G50"/>
     </sheetView>
   </sheetViews>
@@ -7575,6 +8364,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="A22:G27"/>
+    <mergeCell ref="A29:G34"/>
+    <mergeCell ref="A4:G11"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A15:G16"/>
     <mergeCell ref="O29:U34"/>
     <mergeCell ref="O19:U20"/>
     <mergeCell ref="O22:U27"/>
@@ -7585,12 +8380,6 @@
     <mergeCell ref="H19:N20"/>
     <mergeCell ref="H22:N27"/>
     <mergeCell ref="H29:N34"/>
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="A22:G27"/>
-    <mergeCell ref="A29:G34"/>
-    <mergeCell ref="A4:G11"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7638,40 +8427,40 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
@@ -7751,16 +8540,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="A21:G26"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7796,4 +8585,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="L1" location="ステージ案!A1" display="ステージ案"/>
+    <hyperlink ref="H1" location="ステップ!A1" display="ステップへ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="更新リスト" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="リザルト画面" sheetId="7" r:id="rId6"/>
     <sheet name="ステージ案" sheetId="5" r:id="rId7"/>
     <sheet name="チュートリアル" sheetId="9" r:id="rId8"/>
-    <sheet name="ｆ" sheetId="11" r:id="rId9"/>
+    <sheet name="ステージセレクト画面" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="125">
   <si>
     <t>Shall We Dance!! 仕様書</t>
     <rPh sb="17" eb="20">
@@ -2444,6 +2444,100 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ステージボタン、タイトルバックボタン、ステージセレクト、ペア名は画像。
+各ステージボタンは、選択時、色が違う「選択時の画像に刺しかをする」
+BGMは選択中のステージのBGMを再生する。
+タイトルバックボタン選択中はたいとるBGM。
+ペア名の上には、対応したペアをモデルではいち。
+あにめーしょんをさせるかは未確定ですが、余裕があったらアニメーションに対応しておいてもらえると助かります。
+各ステージボタンを押した後は、今まで道理の演出でおねがいします。」</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>センタクチュウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="104" eb="107">
+      <t>センタクチュウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="154" eb="157">
+      <t>ミカクテイ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>ドウリ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>エンシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2787,7 +2881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2958,6 +3052,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13439,327 +13539,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8248650" y="1152525"/>
-          <a:ext cx="4257676" cy="2638425"/>
-          <a:chOff x="323849" y="571500"/>
-          <a:chExt cx="5991225" cy="3800475"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="323849" y="571500"/>
-            <a:ext cx="5991225" cy="3800475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="楕円 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="800100" y="885825"/>
-            <a:ext cx="571500" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="34925">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:prstDash val="dash"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="楕円 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5276849" y="885824"/>
-            <a:ext cx="590551" cy="590551"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="34925">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:prstDash val="dash"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="楕円 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2301512" y="1476373"/>
-            <a:ext cx="2076451" cy="2076451"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:alpha val="41000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="34925">
-            <a:noFill/>
-            <a:prstDash val="dash"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8515350" y="2400300"/>
-          <a:ext cx="542925" cy="561975"/>
-          <a:chOff x="4743450" y="3457575"/>
-          <a:chExt cx="542925" cy="542925"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="楕円 7"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4743450" y="3457575"/>
-            <a:ext cx="542925" cy="542925"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4819650" y="3514725"/>
-            <a:ext cx="389850" cy="435697"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-              <a:t>初</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -13969,6 +13748,1514 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>練習メニュー見出し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="619125"/>
+          <a:ext cx="4257676" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="781050"/>
+          <a:ext cx="1314450" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージセレクト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1295401"/>
+          <a:ext cx="0" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>226835</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>606625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="69" name="グループ化 68"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="226835" y="1428751"/>
+          <a:ext cx="2437190" cy="3492952"/>
+          <a:chOff x="226835" y="1428751"/>
+          <a:chExt cx="2843389" cy="4075114"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="楕円 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="762001" y="1847851"/>
+            <a:ext cx="419099" cy="733424"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="楕円 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1457326" y="1857376"/>
+            <a:ext cx="419099" cy="733424"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="楕円 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="295276" y="1447801"/>
+            <a:ext cx="419099" cy="733424"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="楕円 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2162176" y="1428751"/>
+            <a:ext cx="419099" cy="733424"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="33" name="グループ化 32"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="226835" y="2261613"/>
+            <a:ext cx="591021" cy="783902"/>
+            <a:chOff x="1142993" y="3581400"/>
+            <a:chExt cx="2687989" cy="2170016"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1427742" y="3584880"/>
+              <a:ext cx="1889286" cy="1857011"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1142993" y="3581400"/>
+              <a:ext cx="2687989" cy="2170016"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>○〇</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>　＆　</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
+                <a:t>××</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="39" name="グループ化 38"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="731661" y="2623563"/>
+            <a:ext cx="597371" cy="783902"/>
+            <a:chOff x="1142998" y="3581400"/>
+            <a:chExt cx="2716868" cy="2170016"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1427742" y="3584880"/>
+              <a:ext cx="1889286" cy="1857011"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1142998" y="3581400"/>
+              <a:ext cx="2716868" cy="2170016"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>△△</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>　＆</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>□□</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="42" name="グループ化 41"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1893711" y="2223513"/>
+            <a:ext cx="568797" cy="783213"/>
+            <a:chOff x="1142998" y="3581400"/>
+            <a:chExt cx="2586909" cy="2168110"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1427742" y="3584880"/>
+              <a:ext cx="1889286" cy="1857011"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1142998" y="3581400"/>
+              <a:ext cx="2586909" cy="2168110"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>○〇</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>　＆</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>　</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
+                <a:t>××</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="45" name="グループ化 44"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1426986" y="2623564"/>
+            <a:ext cx="591022" cy="783902"/>
+            <a:chOff x="1142998" y="3581400"/>
+            <a:chExt cx="2687993" cy="2170016"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1427742" y="3584880"/>
+              <a:ext cx="1889286" cy="1857011"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1142998" y="3581400"/>
+              <a:ext cx="2687993" cy="2170016"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>△△</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>　＆</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+                <a:t>□□</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="楕円 69"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="895350" y="4770441"/>
+            <a:ext cx="419098" cy="733424"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="楕円 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1946277" y="4735518"/>
+            <a:ext cx="419098" cy="733424"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="楕円 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="428626" y="4370391"/>
+            <a:ext cx="419098" cy="733424"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="楕円 72"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2651126" y="4306891"/>
+            <a:ext cx="419098" cy="733424"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="楕円 73"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1412877" y="4135442"/>
+            <a:ext cx="419098" cy="733424"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="1114425"/>
+          <a:ext cx="1600200" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1620957" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="1143000"/>
+          <a:ext cx="1620957" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ステージ１の曲名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="1657350"/>
+          <a:ext cx="1600200" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1620957" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="1685925"/>
+          <a:ext cx="1620957" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ステージ２の曲名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="2181225"/>
+          <a:ext cx="1600200" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1620957" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="2209800"/>
+          <a:ext cx="1620957" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ステージ２の曲名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248026" y="2867025"/>
+          <a:ext cx="952500" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="2847975"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトルへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="538289" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="3514725"/>
+          <a:ext cx="538289" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>人時</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16069,12 +17356,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="A22:G27"/>
-    <mergeCell ref="A29:G34"/>
-    <mergeCell ref="A4:G11"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:G16"/>
     <mergeCell ref="O29:U34"/>
     <mergeCell ref="O19:U20"/>
     <mergeCell ref="O22:U27"/>
@@ -16085,6 +17366,12 @@
     <mergeCell ref="H19:N20"/>
     <mergeCell ref="H22:N27"/>
     <mergeCell ref="H29:N34"/>
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="A22:G27"/>
+    <mergeCell ref="A29:G34"/>
+    <mergeCell ref="A4:G11"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A15:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -16104,8 +17391,8 @@
   </sheetPr>
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L107" sqref="L107:R113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16517,8 +17804,8 @@
   </sheetPr>
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16796,10 +18083,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16816,9 +18103,6 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
@@ -16828,76 +18112,122 @@
       <c r="O4" s="36"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>84</v>
+      <c r="I6" s="12" t="s">
+        <v>3</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" customHeight="1">
+      <c r="I7" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>110</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>115</v>
-      </c>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
     </row>
@@ -16905,162 +18235,13 @@
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>118</v>
-      </c>
+      <c r="A28" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I7:O17"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="L1" location="ステージ案!A1" display="ステージ案"/>

--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="更新リスト" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ステージ案" sheetId="5" r:id="rId7"/>
     <sheet name="チュートリアル" sheetId="9" r:id="rId8"/>
     <sheet name="ステージセレクト画面" sheetId="11" r:id="rId9"/>
+    <sheet name="タイトル画面" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="135">
   <si>
     <t>Shall We Dance!! 仕様書</t>
     <rPh sb="17" eb="20">
@@ -2449,12 +2450,11 @@
   </si>
   <si>
     <t>各ステージボタン、タイトルバックボタン、ステージセレクト、ペア名は画像。
-各ステージボタンは、選択時、色が違う「選択時の画像に刺しかをする」
 BGMは選択中のステージのBGMを再生する。
-タイトルバックボタン選択中はたいとるBGM。
-ペア名の上には、対応したペアをモデルではいち。
-あにめーしょんをさせるかは未確定ですが、余裕があったらアニメーションに対応しておいてもらえると助かります。
-各ステージボタンを押した後は、今まで道理の演出でおねがいします。」</t>
+タイトルバックボタン選択中はタイトルBGM。
+ペア名の上には、対応したペアをモデルで配置。
+アニメーションをさせるかは未確定ですが、余裕があったらアニメーションに対応しておいてもらえると助かります。
+各ステージボタンを押した後は、今まで通りの演出でおねがいします。</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
     </rPh>
@@ -2464,80 +2464,357 @@
     <rPh sb="33" eb="35">
       <t>ガゾウ</t>
     </rPh>
+    <rPh sb="41" eb="44">
+      <t>センタクチュウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>センタクチュウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>ミカクテイ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">●特定のステップを一定の順番でおこなうと発動。
+●ステップを実行（ステップ成立後、コントローラを離す）後、ステップ可能タイミング2回までコンボ入力を受け付ける。
+</t>
+    <rPh sb="1" eb="3">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※無敵状態</t>
+    <rPh sb="1" eb="3">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト画面とゲーム終了のボタンを配置。</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵と衝突してもバランスを崩さない。
+衝突された敵はバランスを崩す。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントアップコンボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーストコンボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ターン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>クォーター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ターン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の順番で発動
+●8秒間無敵状態＆テンポ無視でステップ可能</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>クォーター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>クォーター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ターン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の順番で発動
+●獲得ポイントが4回、1.2倍になる。</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カイ</t>
+    </rPh>
     <rPh sb="37" eb="38">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>センタクチュウ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="104" eb="107">
-      <t>センタクチュウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="154" eb="157">
-      <t>ミカクテイ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>タス</t>
-    </rPh>
-    <rPh sb="195" eb="196">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="204" eb="205">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="207" eb="208">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>ドウリ</t>
-    </rPh>
-    <rPh sb="216" eb="218">
-      <t>エンシュツ</t>
+      <t>バイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3053,11 +3330,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15265,6 +15542,284 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13106400" y="1257300"/>
+          <a:ext cx="409575" cy="409575"/>
+          <a:chOff x="4743450" y="3457575"/>
+          <a:chExt cx="542925" cy="542925"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="楕円 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4743450" y="3457575"/>
+            <a:ext cx="542925" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4794397" y="3476846"/>
+            <a:ext cx="482779" cy="520688"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+              <a:t>初</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1723549" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13420725" y="1295400"/>
+          <a:ext cx="1723549" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>：プレイヤー初期位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368090</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228599" y="619125"/>
+          <a:ext cx="4940091" cy="3171825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1295401"/>
+          <a:ext cx="0" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -15733,6 +16288,181 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24">
+      <c r="A1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="I6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" customHeight="1">
+      <c r="I7" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I7:O17"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="L1" location="ステージ案!A1" display="ステージ案"/>
+    <hyperlink ref="H1" location="ステップ!A1" display="ステップへ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
@@ -15843,13 +16573,16 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
       <c r="A1" s="2" t="s">
@@ -16091,8 +16824,150 @@
       <c r="F25" s="49"/>
       <c r="G25" s="50"/>
     </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="44"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="45"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="47"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="48"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="50"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A77" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="44"/>
+      <c r="I77" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="J77" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="K77" s="58"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="58"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="45"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="47"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="58"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="48"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="50"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="44"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="45"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="47"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="48"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="50"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="A81:G83"/>
+    <mergeCell ref="J77:M78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A73:G75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A77:G79"/>
+    <mergeCell ref="A80:G80"/>
     <mergeCell ref="A16:G21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A23:G25"/>
@@ -17356,6 +18231,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="A22:G27"/>
+    <mergeCell ref="A29:G34"/>
+    <mergeCell ref="A4:G11"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A15:G16"/>
     <mergeCell ref="O29:U34"/>
     <mergeCell ref="O19:U20"/>
     <mergeCell ref="O22:U27"/>
@@ -17366,12 +18247,6 @@
     <mergeCell ref="H19:N20"/>
     <mergeCell ref="H22:N27"/>
     <mergeCell ref="H29:N34"/>
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="A22:G27"/>
-    <mergeCell ref="A29:G34"/>
-    <mergeCell ref="A4:G11"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -17391,7 +18266,7 @@
   </sheetPr>
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L107" sqref="L107:R113"/>
     </sheetView>
   </sheetViews>
@@ -18085,8 +18960,8 @@
   </sheetPr>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18127,105 +19002,105 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1">
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" spans="1:15">
       <c r="N18" s="37"/>

--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="更新リスト" sheetId="6" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="176">
   <si>
     <t>Shall We Dance!! 仕様書</t>
     <rPh sb="17" eb="20">
@@ -2220,35 +2220,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14：現在の位置はセンターライトといって、得られるダンスポイントが1.5倍になります。</t>
-    <rPh sb="3" eb="5">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15：ハーフはこのセンターライトを敵から奪取するときなどに使います</t>
-    <rPh sb="17" eb="18">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ダッシュ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2815,6 +2786,562 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノルマのシステムの演出が未完成</t>
+    <rPh sb="9" eb="11">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード画面の作成</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:ステップは曲のテンポに合わせておこなうことが大事です。</t>
+    <rPh sb="7" eb="8">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ダイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:足元を見てください</t>
+    <rPh sb="2" eb="4">
+      <t>アシモト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:このゲージがテンポを表しています。</t>
+    <rPh sb="12" eb="13">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5:ゲージの色が変わっているときにステップを始めなければ、バランスを崩してしまいます。</t>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6:バランスを崩してしまったら、矢印の方向にコントローラーを倒し、体制を立て直しましょう。</t>
+    <rPh sb="7" eb="8">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7:それでは、ステップの練習に入りましょう！</t>
+    <rPh sb="12" eb="14">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15：ハーフは敵をはじいて妨害したいときなどに使います</t>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ボウガイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17:〇ボタンと左矢印キーを押しながらコントローラーを横に180°回転させてみましょう。</t>
+    <rPh sb="8" eb="9">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素晴らしいです！！</t>
+    <rPh sb="0" eb="2">
+      <t>スバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上の4種類のステップを駆使しながら、ダンスポイントを多く稼ぎ、勝ち抜いていきましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クシ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カセ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピンは近づいてくる敵を遠ざけるのに有効でしょう。</t>
+    <rPh sb="4" eb="5">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Lesson3　:　スポットライト」文字のカットイン</t>
+    <rPh sb="19" eb="21">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:次はスポットライトについてです。</t>
+    <rPh sb="2" eb="3">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:スポットライトはステージのセンターに一定時間いることでスポットライトに照らされることができます。</t>
+    <rPh sb="20" eb="22">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:スポットライトに照らされている間は獲得ポイントが上昇し、テンポに関係なくステップをすることができます。</t>
+    <rPh sb="10" eb="11">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:実際にやってみましょう！</t>
+    <rPh sb="2" eb="4">
+      <t>ジッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※移動可能にし、予兆からセンターライト点灯、スポットライトに照らされるまでおこなう</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨチョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※スポットライトに照らされることができるまでクールタイムなしに繰り返す</t>
+    <rPh sb="9" eb="10">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※スポットライトに照らされて、ボーナスタイム終了後、移動停止し、次のチュートリアルに侵攻する</t>
+    <rPh sb="9" eb="10">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Lesson4　:　規定プログラム」文字のカットイン</t>
+    <rPh sb="11" eb="13">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:各ステージでは規定プログラムというものがあり、規定プログラムを消化するのが、最初の目標となります。</t>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショウカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※画面下部に規定プログラムを表示</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:表示されているステップを順番にステップしていきましょう。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※操作可能にする</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1次のレッスンは規定プログラムについてです。</t>
+    <rPh sb="1" eb="2">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※全プログラム消化後、移動停止、次のチュートリアルへ</t>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4：規定プログラムを終了したら、フリータイムへと移行し、自由にステップをすることができます。</t>
+    <rPh sb="2" eb="4">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Lesson5　:　コンボ」文字のカットイン</t>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:最後のレッスンはコンボについてです</t>
+    <rPh sb="2" eb="4">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:フリータイム中に特定のステップを連続でおこなうことで、コンボが成立し、追加効果が発生します</t>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:コンボは2種類あります。</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:1:ポイントアップコンボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5：クォーター→ターン→クォーターの順でステップをすることで成立するコンボで、以降の4回のステップのポイントが増加します。</t>
+    <rPh sb="18" eb="19">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6:実際にやってみましょう</t>
+    <rPh sb="2" eb="4">
+      <t>ジッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7：2:バーストコンボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:ターン→クォーター→ターンの順でステップをすることで成立するコンボで、8秒間無敵状態となりテンポに関わらずステップをすることができます。</t>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9：実際にやってみましょう</t>
+    <rPh sb="2" eb="4">
+      <t>ジッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10：以上ですべてのレッスンを終了します。</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11：ここでレッスンしたことを活かして、勝ち抜いていってください！</t>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ゲージに向けて矢印表示</t>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3279,12 +3806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3312,6 +3833,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3329,12 +3862,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4276,13 +4803,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>160720</xdr:rowOff>
+      <xdr:rowOff>179770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4291,7 +4818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219076" y="13600495"/>
+          <a:off x="219076" y="13619545"/>
           <a:ext cx="4324350" cy="2772980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16303,7 +16830,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>34</v>
@@ -16337,105 +16864,105 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1">
-      <c r="I7" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
+      <c r="I7" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
     </row>
     <row r="18" spans="1:15">
       <c r="N18" s="37"/>
@@ -16573,10 +17100,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:G80"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16596,370 +17123,388 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="I4" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="K12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="42"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="45"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="46"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="48"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A77" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="42"/>
+      <c r="I77" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="44"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="45"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="47"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="48"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="50"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="41" t="s">
+      <c r="J77" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="43"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="45"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="46"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="48"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A77" s="42" t="s">
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="42"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="43"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="45"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="46"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="48"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="B86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="B87" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="44"/>
-      <c r="I77" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="J77" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="K77" s="58"/>
-      <c r="L77" s="58"/>
-      <c r="M77" s="58"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="45"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="47"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="58"/>
-      <c r="M78" s="58"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="48"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="50"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="44"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="45"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="47"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="48"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A16:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G25"/>
+    <mergeCell ref="A4:G8"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G14"/>
+    <mergeCell ref="A15:G15"/>
     <mergeCell ref="A81:G83"/>
     <mergeCell ref="J77:M78"/>
     <mergeCell ref="I77:I78"/>
@@ -16968,14 +17513,6 @@
     <mergeCell ref="A76:G76"/>
     <mergeCell ref="A77:G79"/>
     <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A16:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G25"/>
-    <mergeCell ref="A4:G8"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G14"/>
-    <mergeCell ref="A15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -17018,62 +17555,62 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -17107,105 +17644,105 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
       <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
       <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
       <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
       <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
       <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
       <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
       <c r="L20" s="34"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
@@ -17289,78 +17826,78 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="9" t="s">
@@ -17374,123 +17911,123 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
@@ -17540,156 +18077,156 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="21" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="21" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="21" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="21" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="13" spans="1:21" ht="19.5">
       <c r="A13" s="6" t="s">
@@ -17746,56 +18283,56 @@
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="42" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="42" t="s">
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="44"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="42"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="47"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="31"/>
@@ -17812,13 +18349,13 @@
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="33"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="50"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="48"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="9" t="s">
@@ -17846,54 +18383,54 @@
       <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="44"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="47"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="45"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="9" t="s">
@@ -17921,146 +18458,146 @@
       <c r="U21" s="11"/>
     </row>
     <row r="22" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="42" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="44"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="42"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="47"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="45"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="45"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="47"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="45"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="47"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="50"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="48"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="9" t="s">
@@ -18088,155 +18625,149 @@
       <c r="U28" s="11"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="42" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="44"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="42"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="47"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="47"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="47"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="47"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="50"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="A22:G27"/>
-    <mergeCell ref="A29:G34"/>
-    <mergeCell ref="A4:G11"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:G16"/>
     <mergeCell ref="O29:U34"/>
     <mergeCell ref="O19:U20"/>
     <mergeCell ref="O22:U27"/>
@@ -18247,6 +18778,12 @@
     <mergeCell ref="H19:N20"/>
     <mergeCell ref="H22:N27"/>
     <mergeCell ref="H29:N34"/>
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="A22:G27"/>
+    <mergeCell ref="A29:G34"/>
+    <mergeCell ref="A4:G11"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A15:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -18295,60 +18832,60 @@
       <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="L9" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="44"/>
+      <c r="L9" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="L10" s="45"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="47"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="45"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="47"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="45"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="L12" s="45"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="L13" s="45"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="47"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="45"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="50"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="48"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="15"/>
@@ -18371,60 +18908,60 @@
       <c r="R29" s="14"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="L30" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="44"/>
+      <c r="L30" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="L31" s="45"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="45"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="L32" s="45"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="47"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="45"/>
     </row>
     <row r="33" spans="12:18">
-      <c r="L33" s="45"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="47"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="45"/>
     </row>
     <row r="34" spans="12:18">
-      <c r="L34" s="45"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="47"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="45"/>
     </row>
     <row r="35" spans="12:18">
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="50"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="48"/>
     </row>
     <row r="48" spans="12:18">
       <c r="L48" s="12" t="s">
@@ -18438,60 +18975,60 @@
       <c r="R48" s="14"/>
     </row>
     <row r="49" spans="12:18">
-      <c r="L49" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="44"/>
+      <c r="L49" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="42"/>
     </row>
     <row r="50" spans="12:18">
-      <c r="L50" s="45"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="47"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="45"/>
     </row>
     <row r="51" spans="12:18">
-      <c r="L51" s="45"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="47"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="45"/>
     </row>
     <row r="52" spans="12:18">
-      <c r="L52" s="45"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="47"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="45"/>
     </row>
     <row r="53" spans="12:18">
-      <c r="L53" s="45"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="47"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="45"/>
     </row>
     <row r="54" spans="12:18">
-      <c r="L54" s="48"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
-      <c r="R54" s="50"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="48"/>
     </row>
     <row r="67" spans="12:18" ht="20.25" customHeight="1"/>
     <row r="70" spans="12:18">
@@ -18506,60 +19043,60 @@
       <c r="R70" s="14"/>
     </row>
     <row r="71" spans="12:18">
-      <c r="L71" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="44"/>
+      <c r="L71" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="42"/>
     </row>
     <row r="72" spans="12:18">
-      <c r="L72" s="45"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="46"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="46"/>
-      <c r="R72" s="47"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="45"/>
     </row>
     <row r="73" spans="12:18">
-      <c r="L73" s="45"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="47"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="45"/>
     </row>
     <row r="74" spans="12:18">
-      <c r="L74" s="45"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="47"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="45"/>
     </row>
     <row r="75" spans="12:18">
-      <c r="L75" s="45"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="47"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="45"/>
     </row>
     <row r="76" spans="12:18">
-      <c r="L76" s="48"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="50"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="48"/>
     </row>
     <row r="107" spans="12:18">
       <c r="L107" s="12" t="s">
@@ -18573,60 +19110,60 @@
       <c r="R107" s="14"/>
     </row>
     <row r="108" spans="12:18">
-      <c r="L108" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="M108" s="43"/>
-      <c r="N108" s="43"/>
-      <c r="O108" s="43"/>
-      <c r="P108" s="43"/>
-      <c r="Q108" s="43"/>
-      <c r="R108" s="44"/>
+      <c r="L108" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="M108" s="41"/>
+      <c r="N108" s="41"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="42"/>
     </row>
     <row r="109" spans="12:18">
-      <c r="L109" s="45"/>
-      <c r="M109" s="46"/>
-      <c r="N109" s="46"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
-      <c r="Q109" s="46"/>
-      <c r="R109" s="47"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="44"/>
+      <c r="N109" s="44"/>
+      <c r="O109" s="44"/>
+      <c r="P109" s="44"/>
+      <c r="Q109" s="44"/>
+      <c r="R109" s="45"/>
     </row>
     <row r="110" spans="12:18">
-      <c r="L110" s="45"/>
-      <c r="M110" s="46"/>
-      <c r="N110" s="46"/>
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="46"/>
-      <c r="R110" s="47"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="44"/>
+      <c r="N110" s="44"/>
+      <c r="O110" s="44"/>
+      <c r="P110" s="44"/>
+      <c r="Q110" s="44"/>
+      <c r="R110" s="45"/>
     </row>
     <row r="111" spans="12:18">
-      <c r="L111" s="45"/>
-      <c r="M111" s="46"/>
-      <c r="N111" s="46"/>
-      <c r="O111" s="46"/>
-      <c r="P111" s="46"/>
-      <c r="Q111" s="46"/>
-      <c r="R111" s="47"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="44"/>
+      <c r="N111" s="44"/>
+      <c r="O111" s="44"/>
+      <c r="P111" s="44"/>
+      <c r="Q111" s="44"/>
+      <c r="R111" s="45"/>
     </row>
     <row r="112" spans="12:18">
-      <c r="L112" s="45"/>
-      <c r="M112" s="46"/>
-      <c r="N112" s="46"/>
-      <c r="O112" s="46"/>
-      <c r="P112" s="46"/>
-      <c r="Q112" s="46"/>
-      <c r="R112" s="47"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="44"/>
+      <c r="N112" s="44"/>
+      <c r="O112" s="44"/>
+      <c r="P112" s="44"/>
+      <c r="Q112" s="44"/>
+      <c r="R112" s="45"/>
     </row>
     <row r="113" spans="12:18">
-      <c r="L113" s="48"/>
-      <c r="M113" s="49"/>
-      <c r="N113" s="49"/>
-      <c r="O113" s="49"/>
-      <c r="P113" s="49"/>
-      <c r="Q113" s="49"/>
-      <c r="R113" s="50"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="47"/>
+      <c r="N113" s="47"/>
+      <c r="O113" s="47"/>
+      <c r="P113" s="47"/>
+      <c r="Q113" s="47"/>
+      <c r="R113" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -18677,10 +19214,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18823,87 +19360,82 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -18913,7 +19445,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -18923,22 +19455,238 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="20.25" customHeight="1"/>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -18960,7 +19708,7 @@
   </sheetPr>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7:O17"/>
     </sheetView>
   </sheetViews>
@@ -19002,105 +19750,105 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1">
-      <c r="I7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
+      <c r="I7" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
     </row>
     <row r="18" spans="1:15">
       <c r="N18" s="37"/>

--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新リスト" sheetId="6" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="177">
   <si>
     <t>Shall We Dance!! 仕様書</t>
     <rPh sb="17" eb="20">
@@ -197,18 +197,6 @@
     <rPh sb="2" eb="4">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●クイックタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●テクニックタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●パワータイプ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1373,127 +1361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">・3拍ごとに移動と停止１、２拍で移動をし、3拍で停止をおこなう。移動ルートはステージの外周を周回するように移動をおこなう。
-・審査員の視界が判定範囲内にあった場合、そちらに向けて移動をおこなう。視界
-内に入った後は、「ターン」を30％、「クォーター」を70％の確率で行う（上級ステージ、バランス調整で変更する場合アリ）
-・攻撃範囲内かつ、ボーナスエリア上に他のキャラクターが存在していたら、そのキャラクターへ向かって「ハーフ」のステップをおこなう。
-・ステップはステップ入力開始後、
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※11/8更新</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>ハク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ハク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ハク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガイシュウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シュウカイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="63" eb="66">
-      <t>シンサイン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>ハンイナイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="176" eb="177">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="204" eb="205">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="247" eb="249">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1740,98 +1607,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ステージ上の自分に最も近いボーナスエリアへ向かって移動を行う。
-・現在地と目的地（ボーナスエリア）との直線状に他のキャラクターがいる場合、「ハーフ」のステップを行う。
-・ボーナスエリアにいるときは、「ターン」を30％、「クォーター」を70％の確率でおこなう（実装後、調整予定）
-　　→他のキャラクターが有効範囲内に近づいてきたら、「ターン」を行う。（有効
-　　　範囲はステージＬＶによって変更予定）</t>
-    <rPh sb="5" eb="6">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>ゲンザイチ</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>モクテキチ</t>
-    </rPh>
-    <rPh sb="52" eb="55">
-      <t>チョクセンジョウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="172" eb="173">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1:ようこそ！ビギナーダンススクールへ！！</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1913,10 +1688,6 @@
     <t>プレイヤーが接触したら消え、次のポイントを表示</t>
   </si>
   <si>
-    <t>2:まずは、クォーターです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3:〇ボタンと左矢印キーを押しながらコントローラを45°傾けましょう。</t>
     <rPh sb="7" eb="8">
       <t>ヒダリ</t>
@@ -2090,10 +1861,6 @@
     <rPh sb="20" eb="22">
       <t>レンシュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11:３つめは、ハーフです。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3342,6 +3109,159 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:まずは、クォーターです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11:３つめは、ハーフです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●バランスタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ライト狙い</t>
+    <rPh sb="4" eb="5">
+      <t>ネラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所へ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自分が1位ではないときフィールドの５つの巡回ポイントを巡回する
+・1位のキャラクターがキャラクター4体分以内に入っている時に、5秒おきにハーフステップをおこなう
+・自分が1位のときにはキャラを3キャラ以内に敵がいなくなるように移動をおこなう
+・7秒おきにクォーターステップをおこなう</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ライトが点灯していないときは、5つの巡回ポイントを巡回する。
+・ライトが点灯したら、ライトのポジションへ向けて移動をおこなう
+・スポットライトを獲得したら、クォーター、ターン、クォーターのステップをおこなう
+・スポットライト獲得中、4キャラ以内に他のキャラクターがいた場合、その敵に向けてハーフをおこなう。
+・4キャラ以内に他のキャラクターが2体以上いる場合はターンをおこなう。</t>
+    <rPh sb="5" eb="7">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="174" eb="177">
+      <t>タイイジョウ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3806,6 +3726,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3833,20 +3759,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5398,6 +5318,335 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="2724150"/>
+          <a:ext cx="3762375" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="2933700"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591675" y="2886075"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="4705350"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="3743325"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="4695825"/>
+          <a:ext cx="238125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7792,7 +8041,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11991,13 +12240,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>226359</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>170328</xdr:rowOff>
+      <xdr:rowOff>181534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>125507</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>13446</xdr:rowOff>
+      <xdr:rowOff>24652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12006,7 +12255,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5694830" y="28969446"/>
+          <a:off x="5694830" y="24274181"/>
           <a:ext cx="582706" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13796,7 +14045,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14339,7 +14588,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15849,7 +16098,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1620957" cy="392800"/>
+    <xdr:ext cx="1532407" cy="392800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
@@ -15858,7 +16107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2686050" y="2209800"/>
-          <a:ext cx="1620957" cy="392800"/>
+          <a:ext cx="1532407" cy="392800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15887,7 +16136,15 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ステージ２の曲名</a:t>
+            <a:t>ステージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>の曲名</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16069,7 +16326,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16631,7 +16888,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -16664,7 +16921,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>13</v>
@@ -16676,10 +16933,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -16688,7 +16945,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -16697,16 +16954,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -16717,7 +16974,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -16728,7 +16985,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -16739,7 +16996,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -16748,7 +17005,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -16759,7 +17016,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -16768,7 +17025,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -16777,7 +17034,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -16830,10 +17087,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -16864,105 +17121,105 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1">
-      <c r="I7" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
+      <c r="I7" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" spans="1:15">
       <c r="N18" s="37"/>
@@ -17061,22 +17318,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -17116,387 +17373,395 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="I4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="I4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="51" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="K12" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A16" s="52" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A23" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A23" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="44"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="45"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="47"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="48"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="50"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A77" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="44"/>
+      <c r="I77" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="J77" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="45"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="47"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="48"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="50"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="40" t="s">
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="42"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="43"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="45"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="46"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="48"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A77" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="42"/>
-      <c r="I77" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="J77" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="K77" s="49"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="49"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="43"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="45"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="46"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="48"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="42"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="44"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="43"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="45"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="47"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="46"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="48"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="50"/>
     </row>
     <row r="86" spans="1:7">
       <c r="B86" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A81:G83"/>
+    <mergeCell ref="J77:M78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A73:G75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A77:G79"/>
+    <mergeCell ref="A80:G80"/>
     <mergeCell ref="A16:G21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A23:G25"/>
@@ -17505,14 +17770,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G14"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A81:G83"/>
-    <mergeCell ref="J77:M78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A73:G75"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A77:G79"/>
-    <mergeCell ref="A80:G80"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -17533,7 +17790,7 @@
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:G50"/>
     </sheetView>
   </sheetViews>
@@ -17548,69 +17805,69 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A4" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="A4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -17634,7 +17891,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -17644,8 +17901,8 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="40" t="s">
-        <v>71</v>
+      <c r="A12" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
@@ -17747,7 +18004,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="24" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -17758,7 +18015,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -17769,7 +18026,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -17780,7 +18037,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -17791,7 +18048,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -17800,12 +18057,12 @@
       <c r="F26" s="28"/>
       <c r="G26" s="29"/>
       <c r="H26" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -17816,7 +18073,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="9" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -17826,82 +18083,82 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A29" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="A29" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -17911,127 +18168,127 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
+      <c r="A38" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="43"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="43"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="43"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="43"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -18049,6 +18306,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18067,166 +18325,166 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
+      <c r="A4" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:21" ht="21" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:21" ht="21" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:21" ht="21" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:21" ht="21" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="13" spans="1:21" ht="19.5">
       <c r="A13" s="6" t="s">
@@ -18239,7 +18497,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
       <c r="H13" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -18248,7 +18506,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="8"/>
       <c r="O13" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -18259,7 +18517,7 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -18283,56 +18541,56 @@
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="42"/>
+      <c r="A15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="44"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="45"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="47"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="31"/>
@@ -18349,17 +18607,17 @@
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="33"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="50"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -18383,58 +18641,58 @@
       <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
+      <c r="A19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="44"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="47"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -18458,150 +18716,150 @@
       <c r="U21" s="11"/>
     </row>
     <row r="22" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="42"/>
+      <c r="A22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="44"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="45"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="47"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="45"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="47"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="45"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="47"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="45"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="47"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="48"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="50"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -18625,149 +18883,155 @@
       <c r="U28" s="11"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
+      <c r="A29" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="44"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="45"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="47"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="45"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="47"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="45"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="47"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="45"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="47"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="48"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="A22:G27"/>
+    <mergeCell ref="A29:G34"/>
+    <mergeCell ref="A4:G11"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A15:G16"/>
     <mergeCell ref="O29:U34"/>
     <mergeCell ref="O19:U20"/>
     <mergeCell ref="O22:U27"/>
@@ -18778,12 +19042,6 @@
     <mergeCell ref="H19:N20"/>
     <mergeCell ref="H22:N27"/>
     <mergeCell ref="H29:N34"/>
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="A22:G27"/>
-    <mergeCell ref="A29:G34"/>
-    <mergeCell ref="A4:G11"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -18803,18 +19061,18 @@
   </sheetPr>
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107:R113"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="24">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -18832,60 +19090,60 @@
       <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="L9" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="42"/>
+      <c r="L9" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="47"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="47"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="47"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="50"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="15"/>
@@ -18908,60 +19166,60 @@
       <c r="R29" s="14"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="L30" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="L30" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="44"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="L31" s="43"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="47"/>
     </row>
     <row r="33" spans="12:18">
-      <c r="L33" s="43"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="47"/>
     </row>
     <row r="34" spans="12:18">
-      <c r="L34" s="43"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="47"/>
     </row>
     <row r="35" spans="12:18">
-      <c r="L35" s="46"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="50"/>
     </row>
     <row r="48" spans="12:18">
       <c r="L48" s="12" t="s">
@@ -18975,60 +19233,60 @@
       <c r="R48" s="14"/>
     </row>
     <row r="49" spans="12:18">
-      <c r="L49" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="42"/>
+      <c r="L49" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="44"/>
     </row>
     <row r="50" spans="12:18">
-      <c r="L50" s="43"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="47"/>
     </row>
     <row r="51" spans="12:18">
-      <c r="L51" s="43"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="47"/>
     </row>
     <row r="52" spans="12:18">
-      <c r="L52" s="43"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="47"/>
     </row>
     <row r="53" spans="12:18">
-      <c r="L53" s="43"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="47"/>
     </row>
     <row r="54" spans="12:18">
-      <c r="L54" s="46"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="50"/>
     </row>
     <row r="67" spans="12:18" ht="20.25" customHeight="1"/>
     <row r="70" spans="12:18">
@@ -19043,60 +19301,60 @@
       <c r="R70" s="14"/>
     </row>
     <row r="71" spans="12:18">
-      <c r="L71" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="42"/>
+      <c r="L71" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="44"/>
     </row>
     <row r="72" spans="12:18">
-      <c r="L72" s="43"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="44"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="45"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="46"/>
+      <c r="R72" s="47"/>
     </row>
     <row r="73" spans="12:18">
-      <c r="L73" s="43"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="45"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="47"/>
     </row>
     <row r="74" spans="12:18">
-      <c r="L74" s="43"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="46"/>
+      <c r="R74" s="47"/>
     </row>
     <row r="75" spans="12:18">
-      <c r="L75" s="43"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="47"/>
     </row>
     <row r="76" spans="12:18">
-      <c r="L76" s="46"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="48"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="49"/>
+      <c r="R76" s="50"/>
     </row>
     <row r="107" spans="12:18">
       <c r="L107" s="12" t="s">
@@ -19110,60 +19368,60 @@
       <c r="R107" s="14"/>
     </row>
     <row r="108" spans="12:18">
-      <c r="L108" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="M108" s="41"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="42"/>
+      <c r="L108" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
+      <c r="O108" s="43"/>
+      <c r="P108" s="43"/>
+      <c r="Q108" s="43"/>
+      <c r="R108" s="44"/>
     </row>
     <row r="109" spans="12:18">
-      <c r="L109" s="43"/>
-      <c r="M109" s="44"/>
-      <c r="N109" s="44"/>
-      <c r="O109" s="44"/>
-      <c r="P109" s="44"/>
-      <c r="Q109" s="44"/>
-      <c r="R109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="46"/>
+      <c r="P109" s="46"/>
+      <c r="Q109" s="46"/>
+      <c r="R109" s="47"/>
     </row>
     <row r="110" spans="12:18">
-      <c r="L110" s="43"/>
-      <c r="M110" s="44"/>
-      <c r="N110" s="44"/>
-      <c r="O110" s="44"/>
-      <c r="P110" s="44"/>
-      <c r="Q110" s="44"/>
-      <c r="R110" s="45"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="46"/>
+      <c r="R110" s="47"/>
     </row>
     <row r="111" spans="12:18">
-      <c r="L111" s="43"/>
-      <c r="M111" s="44"/>
-      <c r="N111" s="44"/>
-      <c r="O111" s="44"/>
-      <c r="P111" s="44"/>
-      <c r="Q111" s="44"/>
-      <c r="R111" s="45"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="46"/>
+      <c r="P111" s="46"/>
+      <c r="Q111" s="46"/>
+      <c r="R111" s="47"/>
     </row>
     <row r="112" spans="12:18">
-      <c r="L112" s="43"/>
-      <c r="M112" s="44"/>
-      <c r="N112" s="44"/>
-      <c r="O112" s="44"/>
-      <c r="P112" s="44"/>
-      <c r="Q112" s="44"/>
-      <c r="R112" s="45"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="46"/>
+      <c r="P112" s="46"/>
+      <c r="Q112" s="46"/>
+      <c r="R112" s="47"/>
     </row>
     <row r="113" spans="12:18">
-      <c r="L113" s="46"/>
-      <c r="M113" s="47"/>
-      <c r="N113" s="47"/>
-      <c r="O113" s="47"/>
-      <c r="P113" s="47"/>
-      <c r="Q113" s="47"/>
-      <c r="R113" s="48"/>
+      <c r="L113" s="48"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="49"/>
+      <c r="O113" s="49"/>
+      <c r="P113" s="49"/>
+      <c r="Q113" s="49"/>
+      <c r="R113" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -19199,7 +19457,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -19216,18 +19474,18 @@
   </sheetPr>
   <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -19235,7 +19493,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
@@ -19247,7 +19505,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
@@ -19258,7 +19516,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N7" s="37"/>
       <c r="O7" s="37"/>
@@ -19269,14 +19527,14 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
@@ -19287,7 +19545,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
@@ -19298,14 +19556,14 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -19314,7 +19572,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
@@ -19325,368 +19583,368 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="38" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="20.25" customHeight="1"/>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="38" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="38" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="38" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="38" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="38" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -19709,17 +19967,17 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:O17"/>
+      <selection activeCell="G9" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -19750,105 +20008,105 @@
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1">
-      <c r="I7" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
+      <c r="I7" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" spans="1:15">
       <c r="N18" s="37"/>

--- a/Document/仕様書＿Shall We Dance.xlsx
+++ b/Document/仕様書＿Shall We Dance.xlsx
@@ -235,99 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>●基本的には、プレイヤーと同様の仕様　　
-●敵には3種類のタイプが存在する。
-　　→それぞれのタイプごとに「有効範囲」と「攻撃範囲」を持つ
-　　　　→「有効範囲」は主にスポットライトや審査員の前（以降、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ボーナスエリア</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-　　　　　　と記載）を判定、「攻撃範囲」は主に、攻撃をするかどうかを判定する
-　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
-    </r>
-    <rPh sb="1" eb="4">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>関わらず「ターン」、「クォーター」ステップを行う。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -374,27 +281,6 @@
   </si>
   <si>
     <t>●ターン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・コントローラーをＸ軸に270°回転させると成立する。
-　　→成立するとＤＰを100ポイントを得ることができる。
-</t>
-    <rPh sb="10" eb="11">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>エ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -738,83 +624,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・コントローラーをＺ軸に300°回転させると成立する。
-　　→プレイヤーを中心に円を描くようにしながら1回転、攻撃を
-　　　おこなう。速度は移動速度の1.3倍になる。
-　　　　→回転攻撃を受けたキャラクターは４キャラ分、攻撃を受けた
-　　　　　方向と逆の方向へ後退し、2段階バランスを崩す。</t>
-    <rPh sb="10" eb="11">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>エガ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>コウタイ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>クズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リザルト画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -875,142 +684,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>・コントローラーをＸ軸に160°傾けると成立する。
-　　→成立すると最も近い敵に突進攻撃をおこなう。速度は移動速度の
-　　　1.3倍になる。
-　　　　→突進攻撃を受けたキャラクターは３キャラ分、攻撃を受けた
-　　　　　方向と逆の方向へ後退し、</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">段階バランスを崩す
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>→2段階に変更</t>
-    </r>
-    <rPh sb="10" eb="11">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カタム</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>トッシン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>トッシン</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>コウタイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>クズ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハーフステップの仕様を変更しました。</t>
     <rPh sb="8" eb="10">
       <t>シヨウ</t>
@@ -1239,124 +912,6 @@
     <t>ライバルタイプを追加</t>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・3拍子ごとに移動と停止を繰り返しながら移動をおこなう。移動ルートはステージ
-の外周を周回するように移動をおこなう。
-・6拍子ごとに有効範囲内にボーナスエリアがあるか検索をおこなう。
-　　　　→ボーナスエリアがあり、ボーナスエリア内に現在1位のキャラがいた場合、
-　　　　　そのキャラに「ハーフ」ステップをおこなう。「ハーフ」ステップを行
-　　　　　い、相手がスタンするか元いたボーナスエリアから一定距離離れるまで連
-　　　　　続で「ハーフ」ステップをおこなう。
-　　　　→ボーナスエリアがあり、ボーナスエリア内にキャラがいない場合は、エリ
-　　　　　アへ移動し、「クォーター」、「ターン」、「クォーター」の順でステッ
-　　　　　プを行い、巡回へ戻る。１位以外のキャラがいた場合、巡回を続ける。
-　　　　　　　→ステップ中に他キャラから衝突or攻撃を受けエリア外へ出てしまっ
-　　　　　　　　た場合、復帰はせずに巡回へ戻る。
-　　　　→ボーナスエリアがなかった場合、巡回を続ける。</t>
-    <rPh sb="61" eb="63">
-      <t>ビョウシ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="336" eb="337">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="337" eb="339">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="346" eb="348">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="349" eb="351">
-      <t>ジュンカイ</t>
-    </rPh>
-    <rPh sb="352" eb="353">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="369" eb="370">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="371" eb="372">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="377" eb="379">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="381" eb="383">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="384" eb="385">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="389" eb="390">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="391" eb="392">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="406" eb="408">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="409" eb="411">
-      <t>フッキ</t>
-    </rPh>
-    <rPh sb="415" eb="417">
-      <t>ジュンカイ</t>
-    </rPh>
-    <rPh sb="418" eb="419">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="439" eb="441">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="442" eb="444">
-      <t>ジュンカイ</t>
-    </rPh>
-    <rPh sb="445" eb="446">
-      <t>ツヅ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3146,122 +2701,663 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・自分が1位ではないときフィールドの５つの巡回ポイントを巡回する
+    <t>・スタン値は15
+・自分が1位ではないときフィールドの５つの巡回ポイントを巡回する
 ・1位のキャラクターがキャラクター4体分以内に入っている時に、5秒おきにハーフステップをおこなう
 ・自分が1位のときにはキャラを3キャラ以内に敵がいなくなるように移動をおこなう
 ・7秒おきにクォーターステップをおこなう</t>
-    <rPh sb="1" eb="3">
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>ジブン</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="14" eb="15">
       <t>イ</t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="30" eb="32">
       <t>ジュンカイ</t>
     </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="37" eb="39">
       <t>ジュンカイ</t>
     </rPh>
-    <rPh sb="35" eb="36">
+    <rPh sb="44" eb="45">
       <t>イ</t>
     </rPh>
-    <rPh sb="51" eb="52">
+    <rPh sb="60" eb="61">
       <t>タイ</t>
     </rPh>
-    <rPh sb="52" eb="53">
+    <rPh sb="61" eb="62">
       <t>ブン</t>
     </rPh>
-    <rPh sb="53" eb="55">
+    <rPh sb="62" eb="64">
       <t>イナイ</t>
     </rPh>
-    <rPh sb="56" eb="57">
+    <rPh sb="65" eb="66">
       <t>ハイ</t>
     </rPh>
-    <rPh sb="61" eb="62">
+    <rPh sb="70" eb="71">
       <t>トキ</t>
     </rPh>
-    <rPh sb="65" eb="66">
+    <rPh sb="74" eb="75">
       <t>ビョウ</t>
     </rPh>
-    <rPh sb="83" eb="85">
+    <rPh sb="92" eb="94">
       <t>ジブン</t>
     </rPh>
-    <rPh sb="87" eb="88">
+    <rPh sb="96" eb="97">
       <t>イ</t>
     </rPh>
-    <rPh sb="101" eb="103">
+    <rPh sb="110" eb="112">
       <t>イナイ</t>
     </rPh>
-    <rPh sb="104" eb="105">
+    <rPh sb="113" eb="114">
       <t>テキ</t>
     </rPh>
-    <rPh sb="114" eb="116">
+    <rPh sb="123" eb="125">
       <t>イドウ</t>
     </rPh>
-    <rPh sb="125" eb="126">
+    <rPh sb="134" eb="135">
       <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ライトが点灯していないときは、5つの巡回ポイントを巡回する。
+    <t xml:space="preserve">・コントローラーをＸ軸に270°回転させると成立する。
+　　→成立するとＤＰを100ポイントを得ることができる。
+・スタン値を５下げる
+</t>
+    <rPh sb="10" eb="11">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スタン値を8あげる
+・コントローラーをＺ軸に300°回転させると成立する。
+　　→プレイヤーを中心に円を描くようにしながら1回転、攻撃を
+　　　おこなう。速度は移動速度の1.3倍になる。
+　　　　→回転攻撃を受けたキャラクターは４キャラ分、攻撃を受けた
+　　　　　方向と逆の方向へ後退し、2段階バランスを崩す。</t>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・スタン値を８あげる
+・コントローラーをＸ軸に180°傾けると成立する。
+　　→成立すると最も近い敵に突進攻撃をおこなう。速度は移動速度の
+　　　1.3倍になる。
+　　　　→突進攻撃を受けたキャラクターは３キャラ分、攻撃を受けた
+　　　　　方向と逆の方向へ後退し、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">段階バランスを崩す
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→2段階に変更</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>●基本的には、プレイヤーと同様の仕様　　
+●敵には3種類のタイプが存在する。
+　　→それぞれのタイプごとに「有効範囲」と「攻撃範囲」を持つ
+　　　　→「有効範囲」は主にスポットライトや審査員の前（以降、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ボーナスエリア</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　　　　　　と記載）を判定、「攻撃範囲」は主に、攻撃をするかどうかを判定する
+●他のキャラクターと衝突した時、スタン値が5上昇する　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スタン値は１０
+・ライトが点灯していないときは、5つの巡回ポイントを巡回する。
 ・ライトが点灯したら、ライトのポジションへ向けて移動をおこなう
-・スポットライトを獲得したら、クォーター、ターン、クォーターのステップをおこなう
-・スポットライト獲得中、4キャラ以内に他のキャラクターがいた場合、その敵に向けてハーフをおこなう。
-・4キャラ以内に他のキャラクターが2体以上いる場合はターンをおこなう。</t>
-    <rPh sb="5" eb="7">
+・スポットライトを獲得したら、クォーター、クォーター、ターンを行い続ける
+・センターライトにいるとき、4キャラ以内に他のキャラクターが1体いた場合、その敵に向けてハーフをおこなう。
+・センターライトにいるとき、4キャラ以内に他のキャラクターが2体以上いる場合はスピンをおこなう。</t>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>テントウ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="28" eb="30">
       <t>ジュンカイ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="35" eb="37">
       <t>ジュンカイ</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="46" eb="48">
       <t>テントウ</t>
     </rPh>
-    <rPh sb="53" eb="54">
+    <rPh sb="62" eb="63">
       <t>ム</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="196" eb="199">
+      <t>タイイジョウ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スタン値は20
+・3秒ごとに移動と停止を繰り返しながら移動をおこなう。移動ルートはバランスエネミーと同様。
+・移動、停止を2回繰り返しおこなったらクォーターをおこなう
+・クォーターを2回実行し、移動、停止を2回繰り返しおこなったらターンをおこなう。
+・↑の移動、停止カウントとステップの実行カウントはスポットライトを得ることができたら初期化（カウントを0回に）する
+・常にセンターライトが点灯しているか検索をおこなう。
+　　　　→センターライト点灯中にセンターライトにキャラがいた場合、
+　　　　　そのキャラに「ハーフ」ステップをおこなう。「ハーフ」ステップを行
+　　　　　い、相手がスタンするかセンターライトから一定距離離れるまで
+　　　　　連続で「ハーフ」ステップをおこなう。
+　　　　→センターライト点灯中にセンターライトにキャラがいない場合、
+　　　　　センターライトに移動する。
+　　　　　・センターライトにいるとき、4キャラ以内に他のキャラクターが
+　　　　　　1体いた場合、その敵に向けてハーフをおこなう。
+　　　　　・センターライトにいるとき、4キャラ以内に他のキャラクターが
+　　　　　　2体以上いる場合はスピンをおこなう。
+　　　　→スポットライトを獲得中はクォーターを2回おこない、ターンを1回おこなう
+　　　　　というサイクルを繰り返す
+・センターライト非点灯時、及びスポットライト非獲得時に、1位のキャラがハーフ
+　実行範囲外だった場合、そのキャラへ向けて移動をおこなう。</t>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ドウヨウ</t>
     </rPh>
     <rPh sb="56" eb="58">
       <t>イドウ</t>
     </rPh>
-    <rPh sb="74" eb="76">
+    <rPh sb="59" eb="61">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="168" eb="171">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="281" eb="282">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="308" eb="310">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="312" eb="313">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="545" eb="547">
       <t>カクトク</t>
     </rPh>
-    <rPh sb="114" eb="116">
+    <rPh sb="547" eb="548">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="556" eb="557">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="567" eb="568">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="586" eb="587">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="588" eb="589">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="599" eb="600">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="600" eb="602">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="602" eb="603">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="604" eb="605">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="613" eb="614">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="614" eb="616">
       <t>カクトク</t>
     </rPh>
-    <rPh sb="116" eb="117">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
+    <rPh sb="616" eb="617">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="620" eb="621">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="631" eb="633">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="633" eb="635">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="635" eb="636">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="639" eb="641">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="141" eb="142">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
+    <rPh sb="648" eb="649">
       <t>ム</t>
     </rPh>
-    <rPh sb="161" eb="163">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="174" eb="177">
-      <t>タイイジョウ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>バアイ</t>
+    <rPh sb="651" eb="653">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5321,6 +5417,74 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="9601201"/>
+          <a:ext cx="5943600" cy="9334500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -5643,6 +5807,4424 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1562100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1924050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115300" y="13820775"/>
+          <a:ext cx="1343025" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1533525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1261884" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="13792200"/>
+          <a:ext cx="1261884" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ポイント巡回</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>21325</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="グループ化 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6734175" y="10039350"/>
+          <a:ext cx="4333875" cy="8746225"/>
+          <a:chOff x="4905375" y="6629400"/>
+          <a:chExt cx="4333875" cy="8746225"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6286500" y="11229975"/>
+            <a:ext cx="771525" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6410325" y="11239500"/>
+            <a:ext cx="543739" cy="392800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>停止</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6124575" y="12201525"/>
+            <a:ext cx="1200150" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6200775" y="12201525"/>
+            <a:ext cx="1082348" cy="392800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>クォーター</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="31" name="グループ化 30"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6134100" y="14087475"/>
+            <a:ext cx="771525" cy="392800"/>
+            <a:chOff x="6210300" y="12353925"/>
+            <a:chExt cx="771525" cy="392800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6210300" y="12363450"/>
+              <a:ext cx="771525" cy="361950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6229350" y="12353925"/>
+              <a:ext cx="723275" cy="392800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ターン</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="下矢印 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6534150" y="11696700"/>
+            <a:ext cx="247650" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6696075" y="11744325"/>
+            <a:ext cx="1948931" cy="328360"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>移動、停止カウントが</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>以上</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="下矢印 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6315075" y="13544550"/>
+            <a:ext cx="285750" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ｄ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5829300" y="13115925"/>
+            <a:ext cx="2476500" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5953125" y="13125450"/>
+            <a:ext cx="2339102" cy="392800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>移動、停止カウントを０に</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="下矢印 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6553200" y="12611100"/>
+            <a:ext cx="247650" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6505575" y="13535025"/>
+            <a:ext cx="1666803" cy="564385"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>クォーターカウントが</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>　　　　　　　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>以上</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="下矢印 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6524625" y="10906125"/>
+            <a:ext cx="247650" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876925" y="14973300"/>
+            <a:ext cx="2476500" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6000750" y="14982825"/>
+            <a:ext cx="2339102" cy="392800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>クォーターカウントを０に</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="下矢印 41"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6353175" y="14525625"/>
+            <a:ext cx="285750" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ｄ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="直線コネクタ 32"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8467725" y="15182850"/>
+            <a:ext cx="771525" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="76200"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="直線コネクタ 43"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9153525" y="6629400"/>
+            <a:ext cx="66675" cy="8601075"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="76200"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7458075" y="6667500"/>
+            <a:ext cx="1704975" cy="9525"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="直線コネクタ 49"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7134225" y="11420475"/>
+            <a:ext cx="2047875" cy="9525"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="76200"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="直線コネクタ 52"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8334375" y="13306425"/>
+            <a:ext cx="866775" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="76200"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="下矢印 61"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6515100" y="9458325"/>
+            <a:ext cx="276225" cy="866775"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="下矢印 63"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4914900" y="9439276"/>
+            <a:ext cx="276225" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="153" name="下矢印 152"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4905375" y="10363200"/>
+            <a:ext cx="276225" cy="1009649"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="9467850"/>
+          <a:ext cx="3181350" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3638550" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="9439275"/>
+          <a:ext cx="3638550" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>センターライト非点灯時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="12420600"/>
+          <a:ext cx="4381500" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2609625" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="12401550"/>
+          <a:ext cx="2609625" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自身のポイントが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>番高いか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442301" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="13087350"/>
+          <a:ext cx="442301" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="419410" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="12896850"/>
+          <a:ext cx="419410" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1085850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1400175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="13344525"/>
+          <a:ext cx="1790700" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1066800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="349776"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="13325475"/>
+          <a:ext cx="1877437" cy="349776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トップキャラへむけ移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="9896475"/>
+          <a:ext cx="2695575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2518638" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="テキスト ボックス 105"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="9896475"/>
+          <a:ext cx="2518638" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハーフ範囲内に敵はいるか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="下矢印 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="10315575"/>
+          <a:ext cx="295275" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442301" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="テキスト ボックス 107"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="10277475"/>
+          <a:ext cx="442301" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534151" y="10687050"/>
+          <a:ext cx="1085850" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="993798" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648450" y="10687050"/>
+          <a:ext cx="993798" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ペアか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="下矢印 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="11115675"/>
+          <a:ext cx="295275" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442301" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="テキスト ボックス 111"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="11077575"/>
+          <a:ext cx="442301" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353301" y="11439525"/>
+          <a:ext cx="790574" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="723275" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="テキスト ボックス 113"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="11439525"/>
+          <a:ext cx="723275" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スピン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162676" y="11449050"/>
+          <a:ext cx="866774" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="723275" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="テキスト ボックス 115"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6276975" y="11449050"/>
+          <a:ext cx="723275" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハーフ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="下矢印 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="11096625"/>
+          <a:ext cx="295275" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="419410" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="テキスト ボックス 119"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="11058525"/>
+          <a:ext cx="419410" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="下矢印 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="11868150"/>
+          <a:ext cx="295275" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="下矢印 151"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="11830050"/>
+          <a:ext cx="295275" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1838325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="814262" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="テキスト ボックス 153"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="14097000"/>
+          <a:ext cx="814262" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>秒経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2000250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="814262" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="テキスト ボックス 154"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="14258925"/>
+          <a:ext cx="814262" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>秒経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2514600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="右矢印 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="14773275"/>
+          <a:ext cx="1133475" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="下矢印 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410575" y="10344150"/>
+          <a:ext cx="295275" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="419410" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="テキスト ボックス 159"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8658225" y="11087100"/>
+          <a:ext cx="419410" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="正方形/長方形 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="19459576"/>
+          <a:ext cx="5943600" cy="4467224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="19326225"/>
+          <a:ext cx="3181350" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3638550" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="テキスト ボックス 165"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="19297650"/>
+          <a:ext cx="3638550" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>センターライト点灯時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="正方形/長方形 168"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="20602575"/>
+          <a:ext cx="2752725" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2698175" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="テキスト ボックス 169"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="20574000"/>
+          <a:ext cx="2698175" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>センターライトに敵はいるか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="下矢印 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="21097875"/>
+          <a:ext cx="295275" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442301" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="テキスト ボックス 171"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="21059775"/>
+          <a:ext cx="442301" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="下矢印 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124825" y="21088350"/>
+          <a:ext cx="295275" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="419410" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="テキスト ボックス 173"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="21450300"/>
+          <a:ext cx="419410" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="正方形/長方形 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="21545550"/>
+          <a:ext cx="1743075" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1620957" cy="693267"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="テキスト ボックス 175"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="21516975"/>
+          <a:ext cx="1620957" cy="693267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>センターライトの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>敵へハーフ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="19754850"/>
+          <a:ext cx="2914650" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2877711" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="テキスト ボックス 194"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="19726275"/>
+          <a:ext cx="2877711" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>センターライトに自身がいるか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="下矢印 195"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="20183475"/>
+          <a:ext cx="295275" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="下矢印 196"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="20193000"/>
+          <a:ext cx="295275" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="419410" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="テキスト ボックス 197"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="20154900"/>
+          <a:ext cx="419410" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442301" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="テキスト ボックス 198"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="20974050"/>
+          <a:ext cx="442301" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8199" name="直線コネクタ 8198"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="21878925"/>
+          <a:ext cx="333375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8201" name="直線コネクタ 8200"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="19916775"/>
+          <a:ext cx="0" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8204" name="直線矢印コネクタ 8203"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="19935825"/>
+          <a:ext cx="447675" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="正方形/長方形 214"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="22450425"/>
+          <a:ext cx="2914650" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2518638" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="テキスト ボックス 215"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="22421850"/>
+          <a:ext cx="2518638" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハーフ範囲内に敵がいるか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="下矢印 217"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="22907625"/>
+          <a:ext cx="295275" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="442301" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="テキスト ボックス 218"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="22869525"/>
+          <a:ext cx="442301" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="正方形/長方形 219"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="23307675"/>
+          <a:ext cx="923925" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="723275" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="テキスト ボックス 220"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="23279100"/>
+          <a:ext cx="723275" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スピン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8210" name="直線コネクタ 8209"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858250" y="23526750"/>
+          <a:ext cx="1428750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="直線コネクタ 223"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229850" y="19869150"/>
+          <a:ext cx="47625" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29736</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>205925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8213" name="直線矢印コネクタ 8212"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="195" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9183261" y="19907250"/>
+          <a:ext cx="1037064" cy="15425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="直線コネクタ 229"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9725025" y="22621875"/>
+          <a:ext cx="552450" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="419410" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="テキスト ボックス 231"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9686925" y="22317075"/>
+          <a:ext cx="419410" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16888,7 +21470,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -16921,7 +21503,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>13</v>
@@ -16933,10 +21515,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -16945,7 +21527,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -16954,16 +21536,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="17"/>
       <c r="B8" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -16974,7 +21556,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -16985,7 +21567,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -16996,7 +21578,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -17005,7 +21587,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -17016,7 +21598,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -17025,7 +21607,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -17034,7 +21616,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -17087,10 +21669,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -17122,7 +21704,7 @@
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="I7" s="43" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
@@ -17318,22 +21900,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -17359,7 +21941,7 @@
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
@@ -17373,10 +21955,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -17392,7 +21974,7 @@
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1">
       <c r="A4" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -17401,7 +21983,7 @@
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
       <c r="I4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -17442,7 +22024,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -17453,7 +22035,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="51" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -17480,7 +22062,7 @@
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -17503,7 +22085,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -17514,7 +22096,7 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -17570,7 +22152,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
@@ -17581,7 +22163,7 @@
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -17610,7 +22192,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -17621,7 +22203,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -17650,7 +22232,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -17661,7 +22243,7 @@
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1">
       <c r="A77" s="42" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -17670,10 +22252,10 @@
       <c r="F77" s="43"/>
       <c r="G77" s="44"/>
       <c r="I77" s="53" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J77" s="52" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K77" s="52"/>
       <c r="L77" s="52"/>
@@ -17704,7 +22286,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -17715,7 +22297,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -17744,12 +22326,12 @@
     </row>
     <row r="86" spans="1:7">
       <c r="B86" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -17788,16 +22370,16 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:G50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -17805,10 +22387,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -17824,7 +22406,7 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
       <c r="A4" s="40" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -17860,7 +22442,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="40.5" customHeight="1">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -17891,7 +22473,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -17902,7 +22484,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
@@ -18004,7 +22586,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -18015,7 +22597,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -18026,7 +22608,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -18057,12 +22639,12 @@
       <c r="F26" s="28"/>
       <c r="G26" s="29"/>
       <c r="H26" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -18073,7 +22655,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -18084,7 +22666,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
       <c r="A29" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -18148,44 +22730,44 @@
       <c r="G35" s="47"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="9" t="s">
-        <v>59</v>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="9" t="s">
+        <v>55</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="42" t="s">
-        <v>67</v>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A39" s="42" t="s">
+        <v>176</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="45"/>
@@ -18278,26 +22860,35 @@
       <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>68</v>
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+    </row>
+    <row r="51" spans="1:7" ht="212.25" customHeight="1">
+      <c r="A51" s="48"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:G8"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A29:G36"/>
+    <mergeCell ref="A29:G37"/>
     <mergeCell ref="A12:G21"/>
-    <mergeCell ref="A38:G50"/>
+    <mergeCell ref="A39:G51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -18318,20 +22909,20 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="H28:N34"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:21" ht="24">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -18345,7 +22936,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
@@ -18356,7 +22947,7 @@
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1">
       <c r="A4" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -18365,7 +22956,7 @@
       <c r="F4" s="43"/>
       <c r="G4" s="44"/>
       <c r="H4" s="42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
@@ -18497,7 +23088,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
       <c r="H13" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -18506,7 +23097,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="8"/>
       <c r="O13" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -18517,7 +23108,7 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -18542,7 +23133,7 @@
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
@@ -18551,7 +23142,7 @@
       <c r="F15" s="43"/>
       <c r="G15" s="44"/>
       <c r="H15" s="42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
@@ -18560,7 +23151,7 @@
       <c r="M15" s="43"/>
       <c r="N15" s="44"/>
       <c r="O15" s="42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P15" s="43"/>
       <c r="Q15" s="43"/>
@@ -18617,7 +23208,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -18642,7 +23233,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -18651,7 +23242,7 @@
       <c r="F19" s="43"/>
       <c r="G19" s="44"/>
       <c r="H19" s="42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
@@ -18692,7 +23283,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -18717,7 +23308,7 @@
     </row>
     <row r="22" spans="1:21" ht="18.75" customHeight="1">
       <c r="A22" s="42" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -18726,7 +23317,7 @@
       <c r="F22" s="43"/>
       <c r="G22" s="44"/>
       <c r="H22" s="42" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
@@ -18859,7 +23450,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -18884,7 +23475,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="42" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -18893,7 +23484,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="44"/>
       <c r="H29" s="42" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
@@ -19069,10 +23660,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="24">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -19091,7 +23682,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="L9" s="42" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -19167,7 +23758,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="L30" s="42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -19234,7 +23825,7 @@
     </row>
     <row r="49" spans="12:18">
       <c r="L49" s="42" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M49" s="43"/>
       <c r="N49" s="43"/>
@@ -19302,7 +23893,7 @@
     </row>
     <row r="71" spans="12:18">
       <c r="L71" s="42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M71" s="43"/>
       <c r="N71" s="43"/>
@@ -19369,7 +23960,7 @@
     </row>
     <row r="108" spans="12:18">
       <c r="L108" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M108" s="43"/>
       <c r="N108" s="43"/>
@@ -19457,7 +24048,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -19482,10 +24073,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -19493,7 +24084,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
@@ -19505,7 +24096,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
@@ -19516,7 +24107,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N7" s="37"/>
       <c r="O7" s="37"/>
@@ -19527,14 +24118,14 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
@@ -19545,7 +24136,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
@@ -19556,14 +24147,14 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -19572,7 +24163,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
@@ -19583,368 +24174,368 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>93</v>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>89</v>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="20.25" customHeight="1"/>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="38" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="38" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="38" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="38" t="s">
-        <v>147</v>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="38" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="38" t="s">
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="38" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>166</v>
-      </c>
-    </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -19974,10 +24565,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>13</v>
@@ -20009,7 +24600,7 @@
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="I7" s="43" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
